--- a/not augmented data/airspeed validated.xlsx
+++ b/not augmented data/airspeed validated.xlsx
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,4211 +433,3571 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1980000</v>
+        <v>33980000</v>
       </c>
       <c r="B2" s="2">
-        <v>1.4613297999999999</v>
+        <v>0.97386709999999999</v>
       </c>
       <c r="C2" s="2">
-        <v>1.4613297999999999</v>
+        <v>0.97386709999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>1.4898807000000001</v>
+        <v>0.99288980000000004</v>
       </c>
       <c r="E2" s="2">
-        <v>5.081009E-3</v>
+        <v>4.9313057E-2</v>
       </c>
       <c r="F2" s="2">
-        <v>5.1802799999999998E-3</v>
+        <v>5.0276297999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2980000</v>
+        <v>34980000</v>
       </c>
       <c r="B3" s="2">
-        <v>1.4117799</v>
+        <v>18.697217999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>1.4117799</v>
+        <v>18.703878</v>
       </c>
       <c r="D3" s="2">
-        <v>1.4393567</v>
+        <v>19.069469999999999</v>
       </c>
       <c r="E3" s="2">
-        <v>0.15633214000000001</v>
+        <v>18.635372</v>
       </c>
       <c r="F3" s="2">
-        <v>0.15938583000000001</v>
+        <v>18.999621999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3980000</v>
+        <v>35980000</v>
       </c>
       <c r="B4" s="2">
-        <v>1.5501997000000001</v>
+        <v>23.4223</v>
       </c>
       <c r="C4" s="2">
-        <v>1.5501997000000001</v>
+        <v>23.411781000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>1.5804830000000001</v>
+        <v>23.869743</v>
       </c>
       <c r="E4" s="2">
-        <v>0.22288775</v>
+        <v>23.278223000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>0.22724189</v>
+        <v>23.733571999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4980000</v>
+        <v>36980000</v>
       </c>
       <c r="B5" s="2">
-        <v>-1.247879</v>
+        <v>23.130096000000002</v>
       </c>
       <c r="C5" s="2">
-        <v>-1.247879</v>
+        <v>23.081413000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>-1.2722538000000001</v>
+        <v>23.536518000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>0.28180832</v>
+        <v>22.886557</v>
       </c>
       <c r="F5" s="2">
-        <v>0.28731287</v>
+        <v>23.337820000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5980000</v>
+        <v>37980000</v>
       </c>
       <c r="B6" s="2">
-        <v>1.7926146000000001</v>
+        <v>22.581016999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>1.7926146000000001</v>
+        <v>22.511816</v>
       </c>
       <c r="D6" s="2">
-        <v>1.8276417</v>
+        <v>22.962616000000001</v>
       </c>
       <c r="E6" s="2">
-        <v>0.11452613</v>
+        <v>22.398249</v>
       </c>
       <c r="F6" s="2">
-        <v>0.116763934</v>
+        <v>22.846775000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6980000</v>
+        <v>38980000</v>
       </c>
       <c r="B7" s="2">
-        <v>-0.87737719999999997</v>
+        <v>21.251999000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>-0.87737719999999997</v>
+        <v>21.1873</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.89451986999999999</v>
+        <v>21.618517000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>0.13019923999999999</v>
+        <v>21.068017999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>0.13274314000000001</v>
+        <v>21.496807</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7980000</v>
+        <v>39980000</v>
       </c>
       <c r="B8" s="2">
-        <v>-1.0221819000000001</v>
+        <v>20.960335000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>-1.0221819000000001</v>
+        <v>20.913422000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>-1.0421511000000001</v>
+        <v>21.3446</v>
       </c>
       <c r="E8" s="2">
-        <v>8.5129410000000003E-2</v>
+        <v>20.955606</v>
       </c>
       <c r="F8" s="2">
-        <v>8.6792499999999995E-2</v>
+        <v>21.387654999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8980000</v>
+        <v>40980000</v>
       </c>
       <c r="B9" s="2">
-        <v>0.58808386000000001</v>
+        <v>20.684163999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>0.58808386000000001</v>
+        <v>20.653808999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>0.59957634999999998</v>
+        <v>21.084821999999999</v>
       </c>
       <c r="E9" s="2">
-        <v>5.4365095000000002E-2</v>
+        <v>20.727277999999998</v>
       </c>
       <c r="F9" s="2">
-        <v>5.5427507000000001E-2</v>
+        <v>21.159821999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9980000</v>
+        <v>41980000</v>
       </c>
       <c r="B10" s="2">
-        <v>-1.4272594000000001</v>
+        <v>20.464148000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>-1.4272594000000001</v>
+        <v>20.448734000000002</v>
       </c>
       <c r="D10" s="2">
-        <v>-1.4551411999999999</v>
+        <v>20.880371</v>
       </c>
       <c r="E10" s="2">
-        <v>3.7366476000000003E-2</v>
+        <v>20.506080000000001</v>
       </c>
       <c r="F10" s="2">
-        <v>3.8096440000000002E-2</v>
+        <v>20.938929000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10980000</v>
+        <v>42980000</v>
       </c>
       <c r="B11" s="2">
-        <v>1.6828350999999999</v>
+        <v>20.219491999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>1.6828350999999999</v>
+        <v>20.213902000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>1.7157186</v>
+        <v>20.645630000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>2.8070444E-2</v>
+        <v>20.286439999999999</v>
       </c>
       <c r="F11" s="2">
-        <v>2.8618956000000001E-2</v>
+        <v>20.719716999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11980000</v>
+        <v>43980000</v>
       </c>
       <c r="B12" s="2">
-        <v>-0.51464449999999995</v>
+        <v>20.13513</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.51464449999999995</v>
+        <v>20.139744</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.52469739999999998</v>
+        <v>20.574829999999999</v>
       </c>
       <c r="E12" s="2">
-        <v>1.9350711E-2</v>
+        <v>20.220200999999999</v>
       </c>
       <c r="F12" s="2">
-        <v>1.9728703E-2</v>
+        <v>20.657025999999998</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12980000</v>
+        <v>44980000</v>
       </c>
       <c r="B13" s="2">
-        <v>-1.2505649999999999</v>
+        <v>20.277822</v>
       </c>
       <c r="C13" s="2">
-        <v>-1.2505649999999999</v>
+        <v>20.287666000000002</v>
       </c>
       <c r="D13" s="2">
-        <v>-1.2749926</v>
+        <v>20.730453000000001</v>
       </c>
       <c r="E13" s="2">
-        <v>1.7173601E-2</v>
+        <v>20.374179999999999</v>
       </c>
       <c r="F13" s="2">
-        <v>1.7509055999999999E-2</v>
+        <v>20.818854999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13980000</v>
+        <v>45980000</v>
       </c>
       <c r="B14" s="2">
-        <v>0.75065009999999999</v>
+        <v>20.224014</v>
       </c>
       <c r="C14" s="2">
-        <v>0.75065009999999999</v>
+        <v>20.23396</v>
       </c>
       <c r="D14" s="2">
-        <v>0.76531550000000004</v>
+        <v>20.680337999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>1.4310814E-2</v>
+        <v>20.275057</v>
       </c>
       <c r="F14" s="2">
-        <v>1.4590402000000001E-2</v>
+        <v>20.722342000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14980000</v>
+        <v>46980000</v>
       </c>
       <c r="B15" s="2">
-        <v>-0.86846100000000004</v>
+        <v>20.087416000000001</v>
       </c>
       <c r="C15" s="2">
-        <v>-0.86846100000000004</v>
+        <v>20.093502000000001</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.88542940000000003</v>
+        <v>20.541391000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>1.4892244000000001E-2</v>
+        <v>20.144414999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>1.5183214E-2</v>
+        <v>20.593440000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15980000</v>
+        <v>47980000</v>
       </c>
       <c r="B16" s="2">
-        <v>-0.52133805</v>
+        <v>19.951257999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.52133805</v>
+        <v>19.958462000000001</v>
       </c>
       <c r="D16" s="2">
-        <v>-0.53151994999999996</v>
+        <v>20.407765999999999</v>
       </c>
       <c r="E16" s="2">
-        <v>1.8724088E-2</v>
+        <v>20.003233000000002</v>
       </c>
       <c r="F16" s="2">
-        <v>1.9089775E-2</v>
+        <v>20.453544999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16980000</v>
+        <v>48980000</v>
       </c>
       <c r="B17" s="2">
-        <v>2.1199783999999999</v>
+        <v>19.842476000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>2.1199783999999999</v>
+        <v>19.848790000000001</v>
       </c>
       <c r="D17" s="2">
-        <v>2.1614149</v>
+        <v>20.300654999999999</v>
       </c>
       <c r="E17" s="2">
-        <v>1.8385775E-2</v>
+        <v>19.857582000000001</v>
       </c>
       <c r="F17" s="2">
-        <v>1.8745136999999999E-2</v>
+        <v>20.309649</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17980000</v>
+        <v>49980000</v>
       </c>
       <c r="B18" s="2">
-        <v>-0.92866355</v>
+        <v>19.707492999999999</v>
       </c>
       <c r="C18" s="2">
-        <v>-0.92866355</v>
+        <v>19.71116</v>
       </c>
       <c r="D18" s="2">
-        <v>-0.94680169999999997</v>
+        <v>20.164190000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>2.7584359999999999E-2</v>
+        <v>19.731380000000001</v>
       </c>
       <c r="F18" s="2">
-        <v>2.8123123999999999E-2</v>
+        <v>20.184877</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18980000</v>
+        <v>50980000</v>
       </c>
       <c r="B19" s="2">
-        <v>-1.3429822</v>
+        <v>19.630219</v>
       </c>
       <c r="C19" s="2">
-        <v>-1.3429822</v>
+        <v>19.640025999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>-1.3692291000000001</v>
+        <v>20.096163000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>3.1812380000000001E-2</v>
+        <v>19.602958999999998</v>
       </c>
       <c r="F19" s="2">
-        <v>3.2434116999999998E-2</v>
+        <v>20.058233000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19980000</v>
+        <v>51980000</v>
       </c>
       <c r="B20" s="2">
-        <v>0.59520660000000003</v>
+        <v>19.458403000000001</v>
       </c>
       <c r="C20" s="2">
-        <v>0.59520660000000003</v>
+        <v>19.472866</v>
       </c>
       <c r="D20" s="2">
-        <v>0.60683392999999997</v>
+        <v>19.9297</v>
       </c>
       <c r="E20" s="2">
-        <v>3.2482459999999998E-2</v>
+        <v>19.465506000000001</v>
       </c>
       <c r="F20" s="2">
-        <v>3.3117003999999998E-2</v>
+        <v>19.922167000000002</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20980000</v>
+        <v>52980000</v>
       </c>
       <c r="B21" s="2">
-        <v>-0.70136509999999996</v>
+        <v>19.397057</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.70136509999999996</v>
+        <v>19.415167</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.71507215000000002</v>
+        <v>19.875229999999998</v>
       </c>
       <c r="E21" s="2">
-        <v>2.8504647000000001E-2</v>
+        <v>19.332542</v>
       </c>
       <c r="F21" s="2">
-        <v>2.9061724000000001E-2</v>
+        <v>19.790648000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21980000</v>
+        <v>53980000</v>
       </c>
       <c r="B22" s="2">
-        <v>-1.1378043</v>
+        <v>19.247557</v>
       </c>
       <c r="C22" s="2">
-        <v>-1.1378043</v>
+        <v>19.271898</v>
       </c>
       <c r="D22" s="2">
-        <v>-1.1600182999999999</v>
+        <v>19.733174999999999</v>
       </c>
       <c r="E22" s="2">
-        <v>3.3041805E-2</v>
+        <v>19.202168</v>
       </c>
       <c r="F22" s="2">
-        <v>3.3686899999999999E-2</v>
+        <v>19.661776</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22980000</v>
+        <v>54980000</v>
       </c>
       <c r="B23" s="2">
-        <v>-1.6624893999999999</v>
+        <v>19.013680000000001</v>
       </c>
       <c r="C23" s="2">
-        <v>-1.6624893999999999</v>
+        <v>19.038167999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>-1.6949658000000001</v>
+        <v>19.498411000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>3.6484580000000003E-2</v>
+        <v>19.0716</v>
       </c>
       <c r="F23" s="2">
-        <v>3.7197300000000003E-2</v>
+        <v>19.532654000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23980000</v>
+        <v>55980000</v>
       </c>
       <c r="B24" s="2">
-        <v>1.2844899999999999</v>
+        <v>18.993179999999999</v>
       </c>
       <c r="C24" s="2">
-        <v>1.2844899999999999</v>
+        <v>19.02244</v>
       </c>
       <c r="D24" s="2">
-        <v>1.3095825999999999</v>
+        <v>19.487053</v>
       </c>
       <c r="E24" s="2">
-        <v>4.4010382000000001E-2</v>
+        <v>18.935932000000001</v>
       </c>
       <c r="F24" s="2">
-        <v>4.4870130000000001E-2</v>
+        <v>19.398434000000002</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24980000</v>
+        <v>56980000</v>
       </c>
       <c r="B25" s="2">
-        <v>0.90186160000000004</v>
+        <v>17.090976999999999</v>
       </c>
       <c r="C25" s="2">
-        <v>0.90186160000000004</v>
+        <v>17.128257999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>0.91948134000000004</v>
+        <v>17.549994999999999</v>
       </c>
       <c r="E25" s="2">
-        <v>6.1199150000000001E-2</v>
+        <v>17.169658999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>6.23948E-2</v>
+        <v>17.592417000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>25980000</v>
+        <v>57980000</v>
       </c>
       <c r="B26" s="2">
-        <v>-1.1010901</v>
+        <v>16.103275</v>
       </c>
       <c r="C26" s="2">
-        <v>-1.1010901</v>
+        <v>16.145012000000001</v>
       </c>
       <c r="D26" s="2">
-        <v>-1.1225966999999999</v>
+        <v>16.543606</v>
       </c>
       <c r="E26" s="2">
-        <v>6.7391925000000005E-2</v>
+        <v>16.051200000000001</v>
       </c>
       <c r="F26" s="2">
-        <v>6.8708240000000004E-2</v>
+        <v>16.447479999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>26980000</v>
+        <v>58980000</v>
       </c>
       <c r="B27" s="2">
-        <v>0.43754724</v>
+        <v>15.60493</v>
       </c>
       <c r="C27" s="2">
-        <v>0.43754724</v>
+        <v>15.648813000000001</v>
       </c>
       <c r="D27" s="2">
-        <v>0.44609490000000002</v>
+        <v>16.035</v>
       </c>
       <c r="E27" s="2">
-        <v>6.3002139999999998E-2</v>
+        <v>15.70689</v>
       </c>
       <c r="F27" s="2">
-        <v>6.4232916000000001E-2</v>
+        <v>16.094511000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27980000</v>
+        <v>59980000</v>
       </c>
       <c r="B28" s="2">
-        <v>-1.4541656999999999</v>
+        <v>15.650061000000001</v>
       </c>
       <c r="C28" s="2">
-        <v>-1.4541656999999999</v>
+        <v>15.698302</v>
       </c>
       <c r="D28" s="2">
-        <v>-1.4825698</v>
+        <v>16.085184000000002</v>
       </c>
       <c r="E28" s="2">
-        <v>6.5010815999999999E-2</v>
+        <v>15.660254500000001</v>
       </c>
       <c r="F28" s="2">
-        <v>6.628067E-2</v>
+        <v>16.046199999999999</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>28980000</v>
+        <v>60980000</v>
       </c>
       <c r="B29" s="2">
-        <v>-0.73851853999999995</v>
+        <v>15.756799000000001</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.73851853999999995</v>
+        <v>15.806214000000001</v>
       </c>
       <c r="D29" s="2">
-        <v>-0.75294112999999996</v>
+        <v>16.195038</v>
       </c>
       <c r="E29" s="2">
-        <v>6.8656410000000001E-2</v>
+        <v>15.808089000000001</v>
       </c>
       <c r="F29" s="2">
-        <v>6.9997210000000004E-2</v>
+        <v>16.196960000000001</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29980000</v>
+        <v>61980000</v>
       </c>
       <c r="B30" s="2">
-        <v>0.34052870000000002</v>
+        <v>16.037984999999999</v>
       </c>
       <c r="C30" s="2">
-        <v>0.34052870000000002</v>
+        <v>16.085875000000001</v>
       </c>
       <c r="D30" s="2">
-        <v>0.34718153000000002</v>
+        <v>16.480740000000001</v>
       </c>
       <c r="E30" s="2">
-        <v>6.6627939999999997E-2</v>
+        <v>16.135964999999999</v>
       </c>
       <c r="F30" s="2">
-        <v>6.7929630000000005E-2</v>
+        <v>16.532060000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30980000</v>
+        <v>62980000</v>
       </c>
       <c r="B31" s="2">
-        <v>0.85414800000000002</v>
+        <v>16.116758000000001</v>
       </c>
       <c r="C31" s="2">
-        <v>0.85414800000000002</v>
+        <v>16.166893000000002</v>
       </c>
       <c r="D31" s="2">
-        <v>0.87083670000000002</v>
+        <v>16.563106999999999</v>
       </c>
       <c r="E31" s="2">
-        <v>6.0098400000000003E-2</v>
+        <v>16.375475000000002</v>
       </c>
       <c r="F31" s="2">
-        <v>6.1272624999999997E-2</v>
+        <v>16.776802</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31980000</v>
+        <v>63980000</v>
       </c>
       <c r="B32" s="2">
-        <v>0.65667209999999998</v>
+        <v>16.40859</v>
       </c>
       <c r="C32" s="2">
-        <v>0.65667209999999998</v>
+        <v>16.457235000000001</v>
       </c>
       <c r="D32" s="2">
-        <v>0.66950359999999998</v>
+        <v>16.859324999999998</v>
       </c>
       <c r="E32" s="2">
-        <v>5.2286579999999999E-2</v>
+        <v>16.623083000000001</v>
       </c>
       <c r="F32" s="2">
-        <v>5.3308269999999998E-2</v>
+        <v>17.029226000000001</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32980000</v>
+        <v>64980000</v>
       </c>
       <c r="B33" s="2">
-        <v>-0.88167660000000003</v>
+        <v>16.313320000000001</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.88167660000000003</v>
+        <v>16.355817999999999</v>
       </c>
       <c r="D33" s="2">
-        <v>-0.89889704999999998</v>
+        <v>16.75497</v>
       </c>
       <c r="E33" s="2">
-        <v>4.8766232999999999E-2</v>
+        <v>16.557858</v>
       </c>
       <c r="F33" s="2">
-        <v>4.9718709999999999E-2</v>
+        <v>16.961939999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33980000</v>
+        <v>65980000</v>
       </c>
       <c r="B34" s="2">
-        <v>0.97386709999999999</v>
+        <v>15.798418</v>
       </c>
       <c r="C34" s="2">
-        <v>0.97386709999999999</v>
+        <v>15.884392</v>
       </c>
       <c r="D34" s="2">
-        <v>0.99288980000000004</v>
+        <v>16.272235999999999</v>
       </c>
       <c r="E34" s="2">
-        <v>4.9313057E-2</v>
+        <v>16.065496</v>
       </c>
       <c r="F34" s="2">
-        <v>5.0276297999999997E-2</v>
+        <v>16.457764000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34980000</v>
+        <v>66980000</v>
       </c>
       <c r="B35" s="2">
-        <v>18.697217999999999</v>
+        <v>15.064258000000001</v>
       </c>
       <c r="C35" s="2">
-        <v>18.703878</v>
+        <v>15.186911</v>
       </c>
       <c r="D35" s="2">
-        <v>19.069469999999999</v>
+        <v>15.55829</v>
       </c>
       <c r="E35" s="2">
-        <v>18.635372</v>
+        <v>15.494785</v>
       </c>
       <c r="F35" s="2">
-        <v>18.999621999999999</v>
+        <v>15.873692999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35980000</v>
+        <v>67980000</v>
       </c>
       <c r="B36" s="2">
-        <v>23.4223</v>
+        <v>14.84605</v>
       </c>
       <c r="C36" s="2">
-        <v>23.411781000000001</v>
+        <v>15.004324</v>
       </c>
       <c r="D36" s="2">
-        <v>23.869743</v>
+        <v>15.371525999999999</v>
       </c>
       <c r="E36" s="2">
-        <v>23.278223000000001</v>
+        <v>15.173375</v>
       </c>
       <c r="F36" s="2">
-        <v>23.733571999999999</v>
+        <v>15.544715</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>36980000</v>
+        <v>68980000</v>
       </c>
       <c r="B37" s="2">
-        <v>23.130096000000002</v>
+        <v>14.704616</v>
       </c>
       <c r="C37" s="2">
-        <v>23.081413000000001</v>
+        <v>14.889392000000001</v>
       </c>
       <c r="D37" s="2">
-        <v>23.536518000000001</v>
+        <v>15.254268</v>
       </c>
       <c r="E37" s="2">
-        <v>22.886557</v>
+        <v>15.104445999999999</v>
       </c>
       <c r="F37" s="2">
-        <v>23.337820000000001</v>
+        <v>15.474591999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37980000</v>
+        <v>69980000</v>
       </c>
       <c r="B38" s="2">
-        <v>22.581016999999999</v>
+        <v>14.684175</v>
       </c>
       <c r="C38" s="2">
-        <v>22.511816</v>
+        <v>14.894970000000001</v>
       </c>
       <c r="D38" s="2">
-        <v>22.962616000000001</v>
+        <v>15.259961000000001</v>
       </c>
       <c r="E38" s="2">
-        <v>22.398249</v>
+        <v>15.182776</v>
       </c>
       <c r="F38" s="2">
-        <v>22.846775000000001</v>
+        <v>15.554819999999999</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>38980000</v>
+        <v>70980000</v>
       </c>
       <c r="B39" s="2">
-        <v>21.251999000000001</v>
+        <v>14.833030000000001</v>
       </c>
       <c r="C39" s="2">
-        <v>21.1873</v>
+        <v>15.074229000000001</v>
       </c>
       <c r="D39" s="2">
-        <v>21.618517000000001</v>
+        <v>15.443274499999999</v>
       </c>
       <c r="E39" s="2">
-        <v>21.068017999999999</v>
+        <v>15.27441</v>
       </c>
       <c r="F39" s="2">
-        <v>21.496807</v>
+        <v>15.648356</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39980000</v>
+        <v>71980000</v>
       </c>
       <c r="B40" s="2">
-        <v>20.960335000000001</v>
+        <v>14.877485</v>
       </c>
       <c r="C40" s="2">
-        <v>20.913422000000001</v>
+        <v>15.151035</v>
       </c>
       <c r="D40" s="2">
-        <v>21.3446</v>
+        <v>15.521896</v>
       </c>
       <c r="E40" s="2">
-        <v>20.955606</v>
+        <v>15.331321000000001</v>
       </c>
       <c r="F40" s="2">
-        <v>21.387654999999999</v>
+        <v>15.706594000000001</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>40980000</v>
+        <v>72980000</v>
       </c>
       <c r="B41" s="2">
-        <v>20.684163999999999</v>
+        <v>14.824287</v>
       </c>
       <c r="C41" s="2">
-        <v>20.653808999999999</v>
+        <v>15.122866999999999</v>
       </c>
       <c r="D41" s="2">
-        <v>21.084821999999999</v>
+        <v>15.4931135</v>
       </c>
       <c r="E41" s="2">
-        <v>20.727277999999998</v>
+        <v>15.325500999999999</v>
       </c>
       <c r="F41" s="2">
-        <v>21.159821999999998</v>
+        <v>15.700710000000001</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>41980000</v>
+        <v>73980000</v>
       </c>
       <c r="B42" s="2">
-        <v>20.464148000000002</v>
+        <v>16.955465</v>
       </c>
       <c r="C42" s="2">
-        <v>20.448734000000002</v>
+        <v>17.328628999999999</v>
       </c>
       <c r="D42" s="2">
-        <v>20.880371</v>
+        <v>17.752932000000001</v>
       </c>
       <c r="E42" s="2">
-        <v>20.506080000000001</v>
+        <v>17.358969999999999</v>
       </c>
       <c r="F42" s="2">
-        <v>20.938929000000002</v>
+        <v>17.784016000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42980000</v>
+        <v>74980000</v>
       </c>
       <c r="B43" s="2">
-        <v>20.219491999999999</v>
+        <v>17.656578</v>
       </c>
       <c r="C43" s="2">
-        <v>20.213902000000001</v>
+        <v>17.899166000000001</v>
       </c>
       <c r="D43" s="2">
-        <v>20.645630000000001</v>
+        <v>18.337612</v>
       </c>
       <c r="E43" s="2">
-        <v>20.286439999999999</v>
+        <v>17.685790999999998</v>
       </c>
       <c r="F43" s="2">
-        <v>20.719716999999999</v>
+        <v>18.119009999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43980000</v>
+        <v>75980000</v>
       </c>
       <c r="B44" s="2">
-        <v>20.13513</v>
+        <v>16.583921</v>
       </c>
       <c r="C44" s="2">
-        <v>20.139744</v>
+        <v>16.567677</v>
       </c>
       <c r="D44" s="2">
-        <v>20.574829999999999</v>
+        <v>16.973769999999998</v>
       </c>
       <c r="E44" s="2">
-        <v>20.220200999999999</v>
+        <v>16.159963999999999</v>
       </c>
       <c r="F44" s="2">
-        <v>20.657025999999998</v>
+        <v>16.556063000000002</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44980000</v>
+        <v>76980000</v>
       </c>
       <c r="B45" s="2">
-        <v>20.277822</v>
+        <v>15.226823</v>
       </c>
       <c r="C45" s="2">
-        <v>20.287666000000002</v>
+        <v>15.141023000000001</v>
       </c>
       <c r="D45" s="2">
-        <v>20.730453000000001</v>
+        <v>15.511378000000001</v>
       </c>
       <c r="E45" s="2">
-        <v>20.374179999999999</v>
+        <v>14.3765</v>
       </c>
       <c r="F45" s="2">
-        <v>20.818854999999999</v>
+        <v>14.728156999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45980000</v>
+        <v>77980000</v>
       </c>
       <c r="B46" s="2">
-        <v>20.224014</v>
+        <v>15.066767</v>
       </c>
       <c r="C46" s="2">
-        <v>20.23396</v>
+        <v>14.973414</v>
       </c>
       <c r="D46" s="2">
-        <v>20.680337999999999</v>
+        <v>15.337236000000001</v>
       </c>
       <c r="E46" s="2">
-        <v>20.275057</v>
+        <v>14.2034445</v>
       </c>
       <c r="F46" s="2">
-        <v>20.722342000000001</v>
+        <v>14.548557000000001</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>46980000</v>
+        <v>78980000</v>
       </c>
       <c r="B47" s="2">
-        <v>20.087416000000001</v>
+        <v>15.555847999999999</v>
       </c>
       <c r="C47" s="2">
-        <v>20.093502000000001</v>
+        <v>15.466303999999999</v>
       </c>
       <c r="D47" s="2">
-        <v>20.541391000000001</v>
+        <v>15.838998999999999</v>
       </c>
       <c r="E47" s="2">
-        <v>20.144414999999999</v>
+        <v>14.695804000000001</v>
       </c>
       <c r="F47" s="2">
-        <v>20.593440000000001</v>
+        <v>15.049932500000001</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>47980000</v>
+        <v>79980000</v>
       </c>
       <c r="B48" s="2">
-        <v>19.951257999999999</v>
+        <v>15.811866</v>
       </c>
       <c r="C48" s="2">
-        <v>19.958462000000001</v>
+        <v>15.7302</v>
       </c>
       <c r="D48" s="2">
-        <v>20.407765999999999</v>
+        <v>16.106324999999998</v>
       </c>
       <c r="E48" s="2">
-        <v>20.003233000000002</v>
+        <v>15.079672</v>
       </c>
       <c r="F48" s="2">
-        <v>20.453544999999998</v>
+        <v>15.440243000000001</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>48980000</v>
+        <v>80980000</v>
       </c>
       <c r="B49" s="2">
-        <v>19.842476000000001</v>
+        <v>15.921289</v>
       </c>
       <c r="C49" s="2">
-        <v>19.848790000000001</v>
+        <v>15.8555355</v>
       </c>
       <c r="D49" s="2">
-        <v>20.300654999999999</v>
+        <v>16.23171</v>
       </c>
       <c r="E49" s="2">
-        <v>19.857582000000001</v>
+        <v>15.24957</v>
       </c>
       <c r="F49" s="2">
-        <v>20.309649</v>
+        <v>15.611368000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>49980000</v>
+        <v>81980000</v>
       </c>
       <c r="B50" s="2">
-        <v>19.707492999999999</v>
+        <v>15.784409999999999</v>
       </c>
       <c r="C50" s="2">
-        <v>19.71116</v>
+        <v>15.729008</v>
       </c>
       <c r="D50" s="2">
-        <v>20.164190000000001</v>
+        <v>16.099595999999998</v>
       </c>
       <c r="E50" s="2">
-        <v>19.731380000000001</v>
+        <v>15.148171</v>
       </c>
       <c r="F50" s="2">
-        <v>20.184877</v>
+        <v>15.505074499999999</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>50980000</v>
+        <v>82980000</v>
       </c>
       <c r="B51" s="2">
-        <v>19.630219</v>
+        <v>15.514188000000001</v>
       </c>
       <c r="C51" s="2">
-        <v>19.640025999999999</v>
+        <v>15.463592</v>
       </c>
       <c r="D51" s="2">
-        <v>20.096163000000001</v>
+        <v>15.826076499999999</v>
       </c>
       <c r="E51" s="2">
-        <v>19.602958999999998</v>
+        <v>14.927063</v>
       </c>
       <c r="F51" s="2">
-        <v>20.058233000000001</v>
+        <v>15.276972000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>51980000</v>
+        <v>83980000</v>
       </c>
       <c r="B52" s="2">
-        <v>19.458403000000001</v>
+        <v>15.336658999999999</v>
       </c>
       <c r="C52" s="2">
-        <v>19.472866</v>
+        <v>15.299371000000001</v>
       </c>
       <c r="D52" s="2">
-        <v>19.9297</v>
+        <v>15.655813999999999</v>
       </c>
       <c r="E52" s="2">
-        <v>19.465506000000001</v>
+        <v>14.782959</v>
       </c>
       <c r="F52" s="2">
-        <v>19.922167000000002</v>
+        <v>15.127371</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>52980000</v>
+        <v>84980000</v>
       </c>
       <c r="B53" s="2">
-        <v>19.397057</v>
+        <v>15.25299</v>
       </c>
       <c r="C53" s="2">
-        <v>19.415167</v>
+        <v>15.219592</v>
       </c>
       <c r="D53" s="2">
-        <v>19.875229999999998</v>
+        <v>15.572112000000001</v>
       </c>
       <c r="E53" s="2">
-        <v>19.332542</v>
+        <v>14.750601</v>
       </c>
       <c r="F53" s="2">
-        <v>19.790648000000001</v>
+        <v>15.092257</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>53980000</v>
+        <v>85980000</v>
       </c>
       <c r="B54" s="2">
-        <v>19.247557</v>
+        <v>15.3806925</v>
       </c>
       <c r="C54" s="2">
-        <v>19.271898</v>
+        <v>15.343432</v>
       </c>
       <c r="D54" s="2">
-        <v>19.733174999999999</v>
+        <v>15.696331000000001</v>
       </c>
       <c r="E54" s="2">
-        <v>19.202168</v>
+        <v>14.798873</v>
       </c>
       <c r="F54" s="2">
-        <v>19.661776</v>
+        <v>15.139246999999999</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>54980000</v>
+        <v>86980000</v>
       </c>
       <c r="B55" s="2">
-        <v>19.013680000000001</v>
+        <v>15.449192999999999</v>
       </c>
       <c r="C55" s="2">
-        <v>19.038167999999999</v>
+        <v>15.408906</v>
       </c>
       <c r="D55" s="2">
-        <v>19.498411000000001</v>
+        <v>15.760965000000001</v>
       </c>
       <c r="E55" s="2">
-        <v>19.0716</v>
+        <v>14.861283</v>
       </c>
       <c r="F55" s="2">
-        <v>19.532654000000001</v>
+        <v>15.200831000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>55980000</v>
+        <v>87980000</v>
       </c>
       <c r="B56" s="2">
-        <v>18.993179999999999</v>
+        <v>15.490675</v>
       </c>
       <c r="C56" s="2">
-        <v>19.02244</v>
+        <v>15.448513999999999</v>
       </c>
       <c r="D56" s="2">
-        <v>19.487053</v>
+        <v>15.799172</v>
       </c>
       <c r="E56" s="2">
-        <v>18.935932000000001</v>
+        <v>14.8994</v>
       </c>
       <c r="F56" s="2">
-        <v>19.398434000000002</v>
+        <v>15.237594</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>56980000</v>
+        <v>88980000</v>
       </c>
       <c r="B57" s="2">
-        <v>17.090976999999999</v>
+        <v>15.4980955</v>
       </c>
       <c r="C57" s="2">
-        <v>17.128257999999999</v>
+        <v>15.459669999999999</v>
       </c>
       <c r="D57" s="2">
-        <v>17.549994999999999</v>
+        <v>15.808208</v>
       </c>
       <c r="E57" s="2">
-        <v>17.169658999999999</v>
+        <v>14.922409</v>
       </c>
       <c r="F57" s="2">
-        <v>17.592417000000001</v>
+        <v>15.258834999999999</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>57980000</v>
+        <v>89980000</v>
       </c>
       <c r="B58" s="2">
-        <v>16.103275</v>
+        <v>15.483442</v>
       </c>
       <c r="C58" s="2">
-        <v>16.145012000000001</v>
+        <v>15.440348</v>
       </c>
       <c r="D58" s="2">
-        <v>16.543606</v>
+        <v>15.786026</v>
       </c>
       <c r="E58" s="2">
-        <v>16.051200000000001</v>
+        <v>14.927489</v>
       </c>
       <c r="F58" s="2">
-        <v>16.447479999999999</v>
+        <v>15.261684000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>58980000</v>
+        <v>90980000</v>
       </c>
       <c r="B59" s="2">
-        <v>15.60493</v>
+        <v>15.528722</v>
       </c>
       <c r="C59" s="2">
-        <v>15.648813000000001</v>
+        <v>15.492748000000001</v>
       </c>
       <c r="D59" s="2">
-        <v>16.035</v>
+        <v>15.837275</v>
       </c>
       <c r="E59" s="2">
-        <v>15.70689</v>
+        <v>14.940541</v>
       </c>
       <c r="F59" s="2">
-        <v>16.094511000000001</v>
+        <v>15.272788</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>59980000</v>
+        <v>91980000</v>
       </c>
       <c r="B60" s="2">
-        <v>15.650061000000001</v>
+        <v>15.815003000000001</v>
       </c>
       <c r="C60" s="2">
-        <v>15.698302</v>
+        <v>15.776073</v>
       </c>
       <c r="D60" s="2">
-        <v>16.085184000000002</v>
+        <v>16.124624000000001</v>
       </c>
       <c r="E60" s="2">
-        <v>15.660254500000001</v>
+        <v>15.2721815</v>
       </c>
       <c r="F60" s="2">
-        <v>16.046199999999999</v>
+        <v>15.609598999999999</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>60980000</v>
+        <v>92980000</v>
       </c>
       <c r="B61" s="2">
-        <v>15.756799000000001</v>
+        <v>17.215889000000001</v>
       </c>
       <c r="C61" s="2">
-        <v>15.806214000000001</v>
+        <v>17.19802</v>
       </c>
       <c r="D61" s="2">
-        <v>16.195038</v>
+        <v>17.576861999999998</v>
       </c>
       <c r="E61" s="2">
-        <v>15.808089000000001</v>
+        <v>16.873906999999999</v>
       </c>
       <c r="F61" s="2">
-        <v>16.196960000000001</v>
+        <v>17.245609999999999</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>61980000</v>
+        <v>93980000</v>
       </c>
       <c r="B62" s="2">
-        <v>16.037984999999999</v>
+        <v>16.34789</v>
       </c>
       <c r="C62" s="2">
-        <v>16.085875000000001</v>
+        <v>16.380521999999999</v>
       </c>
       <c r="D62" s="2">
-        <v>16.480740000000001</v>
+        <v>16.742933000000001</v>
       </c>
       <c r="E62" s="2">
-        <v>16.135964999999999</v>
+        <v>16.427156</v>
       </c>
       <c r="F62" s="2">
-        <v>16.532060000000001</v>
+        <v>16.790600000000001</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>62980000</v>
+        <v>94980000</v>
       </c>
       <c r="B63" s="2">
-        <v>16.116758000000001</v>
+        <v>15.421818</v>
       </c>
       <c r="C63" s="2">
-        <v>16.166893000000002</v>
+        <v>15.457266000000001</v>
       </c>
       <c r="D63" s="2">
-        <v>16.563106999999999</v>
+        <v>15.801613</v>
       </c>
       <c r="E63" s="2">
-        <v>16.375475000000002</v>
+        <v>15.642331</v>
       </c>
       <c r="F63" s="2">
-        <v>16.776802</v>
+        <v>15.990802</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>63980000</v>
+        <v>95980000</v>
       </c>
       <c r="B64" s="2">
-        <v>16.40859</v>
+        <v>15.215209</v>
       </c>
       <c r="C64" s="2">
-        <v>16.457235000000001</v>
+        <v>15.245606</v>
       </c>
       <c r="D64" s="2">
-        <v>16.859324999999998</v>
+        <v>15.585855</v>
       </c>
       <c r="E64" s="2">
-        <v>16.623083000000001</v>
+        <v>15.575718999999999</v>
       </c>
       <c r="F64" s="2">
-        <v>17.029226000000001</v>
+        <v>15.923334000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>64980000</v>
+        <v>96980000</v>
       </c>
       <c r="B65" s="2">
-        <v>16.313320000000001</v>
+        <v>15.716352000000001</v>
       </c>
       <c r="C65" s="2">
-        <v>16.355817999999999</v>
+        <v>15.747280999999999</v>
       </c>
       <c r="D65" s="2">
-        <v>16.75497</v>
+        <v>16.098099999999999</v>
       </c>
       <c r="E65" s="2">
-        <v>16.557858</v>
+        <v>15.974107999999999</v>
       </c>
       <c r="F65" s="2">
-        <v>16.961939999999998</v>
+        <v>16.329979000000002</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>65980000</v>
+        <v>97980000</v>
       </c>
       <c r="B66" s="2">
-        <v>15.798418</v>
+        <v>16.049890000000001</v>
       </c>
       <c r="C66" s="2">
-        <v>15.884392</v>
+        <v>16.083977000000001</v>
       </c>
       <c r="D66" s="2">
-        <v>16.272235999999999</v>
+        <v>16.441890000000001</v>
       </c>
       <c r="E66" s="2">
-        <v>16.065496</v>
+        <v>16.150997</v>
       </c>
       <c r="F66" s="2">
-        <v>16.457764000000001</v>
+        <v>16.510403</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>66980000</v>
+        <v>98980000</v>
       </c>
       <c r="B67" s="2">
-        <v>15.064258000000001</v>
+        <v>16.034458000000001</v>
       </c>
       <c r="C67" s="2">
-        <v>15.186911</v>
+        <v>16.071065999999998</v>
       </c>
       <c r="D67" s="2">
-        <v>15.55829</v>
+        <v>16.428363999999998</v>
       </c>
       <c r="E67" s="2">
-        <v>15.494785</v>
+        <v>16.111886999999999</v>
       </c>
       <c r="F67" s="2">
-        <v>15.873692999999999</v>
+        <v>16.470092999999999</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>67980000</v>
+        <v>99980000</v>
       </c>
       <c r="B68" s="2">
-        <v>14.84605</v>
+        <v>15.870424</v>
       </c>
       <c r="C68" s="2">
-        <v>15.004324</v>
+        <v>15.920302</v>
       </c>
       <c r="D68" s="2">
-        <v>15.371525999999999</v>
+        <v>16.274006</v>
       </c>
       <c r="E68" s="2">
-        <v>15.173375</v>
+        <v>16.001100000000001</v>
       </c>
       <c r="F68" s="2">
-        <v>15.544715</v>
+        <v>16.356598000000002</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>68980000</v>
+        <v>100980000</v>
       </c>
       <c r="B69" s="2">
-        <v>14.704616</v>
+        <v>15.697948999999999</v>
       </c>
       <c r="C69" s="2">
-        <v>14.889392000000001</v>
+        <v>15.759582999999999</v>
       </c>
       <c r="D69" s="2">
-        <v>15.254268</v>
+        <v>16.109562</v>
       </c>
       <c r="E69" s="2">
-        <v>15.104445999999999</v>
+        <v>15.931096</v>
       </c>
       <c r="F69" s="2">
-        <v>15.474591999999999</v>
+        <v>16.284884999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>69980000</v>
+        <v>101980000</v>
       </c>
       <c r="B70" s="2">
-        <v>14.684175</v>
+        <v>15.740429000000001</v>
       </c>
       <c r="C70" s="2">
-        <v>14.894970000000001</v>
+        <v>15.8163185</v>
       </c>
       <c r="D70" s="2">
-        <v>15.259961000000001</v>
+        <v>16.167262999999998</v>
       </c>
       <c r="E70" s="2">
-        <v>15.182776</v>
+        <v>15.904310000000001</v>
       </c>
       <c r="F70" s="2">
-        <v>15.554819999999999</v>
+        <v>16.257207999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>70980000</v>
+        <v>102980000</v>
       </c>
       <c r="B71" s="2">
-        <v>14.833030000000001</v>
+        <v>15.536490000000001</v>
       </c>
       <c r="C71" s="2">
-        <v>15.074229000000001</v>
+        <v>15.623346</v>
       </c>
       <c r="D71" s="2">
-        <v>15.443274499999999</v>
+        <v>15.969970999999999</v>
       </c>
       <c r="E71" s="2">
-        <v>15.27441</v>
+        <v>15.740849499999999</v>
       </c>
       <c r="F71" s="2">
-        <v>15.648356</v>
+        <v>16.09008</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>71980000</v>
+        <v>103980000</v>
       </c>
       <c r="B72" s="2">
-        <v>14.877485</v>
+        <v>15.250384</v>
       </c>
       <c r="C72" s="2">
-        <v>15.151035</v>
+        <v>15.350137999999999</v>
       </c>
       <c r="D72" s="2">
-        <v>15.521896</v>
+        <v>15.690906</v>
       </c>
       <c r="E72" s="2">
-        <v>15.331321000000001</v>
+        <v>15.708569000000001</v>
       </c>
       <c r="F72" s="2">
-        <v>15.706594000000001</v>
+        <v>16.057295</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>72980000</v>
+        <v>104980000</v>
       </c>
       <c r="B73" s="2">
-        <v>14.824287</v>
+        <v>15.137567499999999</v>
       </c>
       <c r="C73" s="2">
-        <v>15.122866999999999</v>
+        <v>15.231351</v>
       </c>
       <c r="D73" s="2">
-        <v>15.4931135</v>
+        <v>15.569806</v>
       </c>
       <c r="E73" s="2">
-        <v>15.325500999999999</v>
+        <v>16.002033000000001</v>
       </c>
       <c r="F73" s="2">
-        <v>15.700710000000001</v>
+        <v>16.357614999999999</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>73980000</v>
+        <v>105980000</v>
       </c>
       <c r="B74" s="2">
-        <v>16.955465</v>
+        <v>15.094654</v>
       </c>
       <c r="C74" s="2">
-        <v>17.328628999999999</v>
+        <v>15.190047</v>
       </c>
       <c r="D74" s="2">
-        <v>17.752932000000001</v>
+        <v>15.527968</v>
       </c>
       <c r="E74" s="2">
-        <v>17.358969999999999</v>
+        <v>16.168607999999999</v>
       </c>
       <c r="F74" s="2">
-        <v>17.784016000000001</v>
+        <v>16.528300000000002</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>74980000</v>
+        <v>106980000</v>
       </c>
       <c r="B75" s="2">
-        <v>17.656578</v>
+        <v>15.780438999999999</v>
       </c>
       <c r="C75" s="2">
-        <v>17.899166000000001</v>
+        <v>15.904418</v>
       </c>
       <c r="D75" s="2">
-        <v>18.337612</v>
+        <v>16.257995999999999</v>
       </c>
       <c r="E75" s="2">
-        <v>17.685790999999998</v>
+        <v>16.800986999999999</v>
       </c>
       <c r="F75" s="2">
-        <v>18.119009999999999</v>
+        <v>17.174498</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>75980000</v>
+        <v>107980000</v>
       </c>
       <c r="B76" s="2">
-        <v>16.583921</v>
+        <v>16.697503999999999</v>
       </c>
       <c r="C76" s="2">
-        <v>16.567677</v>
+        <v>16.869945999999999</v>
       </c>
       <c r="D76" s="2">
-        <v>16.973769999999998</v>
+        <v>17.243697999999998</v>
       </c>
       <c r="E76" s="2">
-        <v>16.159963999999999</v>
+        <v>17.571363000000002</v>
       </c>
       <c r="F76" s="2">
-        <v>16.556063000000002</v>
+        <v>17.960657000000001</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>76980000</v>
+        <v>108980000</v>
       </c>
       <c r="B77" s="2">
-        <v>15.226823</v>
+        <v>17.771404</v>
       </c>
       <c r="C77" s="2">
-        <v>15.141023000000001</v>
+        <v>17.960443000000001</v>
       </c>
       <c r="D77" s="2">
-        <v>15.511378000000001</v>
+        <v>18.355705</v>
       </c>
       <c r="E77" s="2">
-        <v>14.3765</v>
+        <v>18.076381999999999</v>
       </c>
       <c r="F77" s="2">
-        <v>14.728156999999999</v>
+        <v>18.474194000000001</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>77980000</v>
+        <v>109980000</v>
       </c>
       <c r="B78" s="2">
-        <v>15.066767</v>
+        <v>18.791668000000001</v>
       </c>
       <c r="C78" s="2">
-        <v>14.973414</v>
+        <v>18.972726999999999</v>
       </c>
       <c r="D78" s="2">
-        <v>15.337236000000001</v>
+        <v>19.387174999999999</v>
       </c>
       <c r="E78" s="2">
-        <v>14.2034445</v>
+        <v>18.447026999999999</v>
       </c>
       <c r="F78" s="2">
-        <v>14.548557000000001</v>
+        <v>18.849989999999998</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>78980000</v>
+        <v>110980000</v>
       </c>
       <c r="B79" s="2">
-        <v>15.555847999999999</v>
+        <v>19.21894</v>
       </c>
       <c r="C79" s="2">
-        <v>15.466303999999999</v>
+        <v>19.391777000000001</v>
       </c>
       <c r="D79" s="2">
-        <v>15.838998999999999</v>
+        <v>19.812479</v>
       </c>
       <c r="E79" s="2">
-        <v>14.695804000000001</v>
+        <v>18.364091999999999</v>
       </c>
       <c r="F79" s="2">
-        <v>15.049932500000001</v>
+        <v>18.762499999999999</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>79980000</v>
+        <v>111980000</v>
       </c>
       <c r="B80" s="2">
-        <v>15.811866</v>
+        <v>18.67407</v>
       </c>
       <c r="C80" s="2">
-        <v>15.7302</v>
+        <v>18.829350000000002</v>
       </c>
       <c r="D80" s="2">
-        <v>16.106324999999998</v>
+        <v>19.236357000000002</v>
       </c>
       <c r="E80" s="2">
-        <v>15.079672</v>
+        <v>17.696843999999999</v>
       </c>
       <c r="F80" s="2">
-        <v>15.440243000000001</v>
+        <v>18.079371999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>80980000</v>
+        <v>112980000</v>
       </c>
       <c r="B81" s="2">
-        <v>15.921289</v>
+        <v>17.41508</v>
       </c>
       <c r="C81" s="2">
-        <v>15.8555355</v>
+        <v>17.53454</v>
       </c>
       <c r="D81" s="2">
-        <v>16.23171</v>
+        <v>17.91535</v>
       </c>
       <c r="E81" s="2">
-        <v>15.24957</v>
+        <v>16.416312999999999</v>
       </c>
       <c r="F81" s="2">
-        <v>15.611368000000001</v>
+        <v>16.772839000000001</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>81980000</v>
+        <v>113980000</v>
       </c>
       <c r="B82" s="2">
-        <v>15.784409999999999</v>
+        <v>16.291985</v>
       </c>
       <c r="C82" s="2">
-        <v>15.729008</v>
+        <v>16.388424000000001</v>
       </c>
       <c r="D82" s="2">
-        <v>16.099595999999998</v>
+        <v>16.746919999999999</v>
       </c>
       <c r="E82" s="2">
-        <v>15.148171</v>
+        <v>15.257028999999999</v>
       </c>
       <c r="F82" s="2">
-        <v>15.505074499999999</v>
+        <v>15.590775000000001</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>82980000</v>
+        <v>114980000</v>
       </c>
       <c r="B83" s="2">
-        <v>15.514188000000001</v>
+        <v>15.742314</v>
       </c>
       <c r="C83" s="2">
-        <v>15.463592</v>
+        <v>15.833492</v>
       </c>
       <c r="D83" s="2">
-        <v>15.826076499999999</v>
+        <v>16.181349999999998</v>
       </c>
       <c r="E83" s="2">
-        <v>14.927063</v>
+        <v>14.689897999999999</v>
       </c>
       <c r="F83" s="2">
-        <v>15.276972000000001</v>
+        <v>15.01263</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>83980000</v>
+        <v>115980000</v>
       </c>
       <c r="B84" s="2">
-        <v>15.336658999999999</v>
+        <v>15.434345</v>
       </c>
       <c r="C84" s="2">
-        <v>15.299371000000001</v>
+        <v>15.50822</v>
       </c>
       <c r="D84" s="2">
-        <v>15.655813999999999</v>
+        <v>15.84999</v>
       </c>
       <c r="E84" s="2">
-        <v>14.782959</v>
+        <v>14.550856</v>
       </c>
       <c r="F84" s="2">
-        <v>15.127371</v>
+        <v>14.871527</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>84980000</v>
+        <v>116980000</v>
       </c>
       <c r="B85" s="2">
-        <v>15.25299</v>
+        <v>15.004394</v>
       </c>
       <c r="C85" s="2">
-        <v>15.219592</v>
+        <v>15.050096999999999</v>
       </c>
       <c r="D85" s="2">
-        <v>15.572112000000001</v>
+        <v>15.382173999999999</v>
       </c>
       <c r="E85" s="2">
-        <v>14.750601</v>
+        <v>14.409302</v>
       </c>
       <c r="F85" s="2">
-        <v>15.092257</v>
+        <v>14.727238</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>85980000</v>
+        <v>117980000</v>
       </c>
       <c r="B86" s="2">
-        <v>15.3806925</v>
+        <v>14.3965225</v>
       </c>
       <c r="C86" s="2">
-        <v>15.343432</v>
+        <v>14.418106999999999</v>
       </c>
       <c r="D86" s="2">
-        <v>15.696331000000001</v>
+        <v>14.736789999999999</v>
       </c>
       <c r="E86" s="2">
-        <v>14.798873</v>
+        <v>14.16722</v>
       </c>
       <c r="F86" s="2">
-        <v>15.139246999999999</v>
+        <v>14.480357</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>86980000</v>
+        <v>118980000</v>
       </c>
       <c r="B87" s="2">
-        <v>15.449192999999999</v>
+        <v>14.025397</v>
       </c>
       <c r="C87" s="2">
-        <v>15.408906</v>
+        <v>14.040201</v>
       </c>
       <c r="D87" s="2">
-        <v>15.760965000000001</v>
+        <v>14.351414999999999</v>
       </c>
       <c r="E87" s="2">
-        <v>14.861283</v>
+        <v>14.142509</v>
       </c>
       <c r="F87" s="2">
-        <v>15.200831000000001</v>
+        <v>14.455990999999999</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>87980000</v>
+        <v>119980000</v>
       </c>
       <c r="B88" s="2">
-        <v>15.490675</v>
+        <v>14.069053</v>
       </c>
       <c r="C88" s="2">
-        <v>15.448513999999999</v>
+        <v>14.089702000000001</v>
       </c>
       <c r="D88" s="2">
-        <v>15.799172</v>
+        <v>14.402165</v>
       </c>
       <c r="E88" s="2">
-        <v>14.8994</v>
+        <v>14.420724999999999</v>
       </c>
       <c r="F88" s="2">
-        <v>15.237594</v>
+        <v>14.740531000000001</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>88980000</v>
+        <v>120980000</v>
       </c>
       <c r="B89" s="2">
-        <v>15.4980955</v>
+        <v>14.35205</v>
       </c>
       <c r="C89" s="2">
-        <v>15.459669999999999</v>
+        <v>14.375113000000001</v>
       </c>
       <c r="D89" s="2">
-        <v>15.808208</v>
+        <v>14.693735999999999</v>
       </c>
       <c r="E89" s="2">
-        <v>14.922409</v>
+        <v>14.883293</v>
       </c>
       <c r="F89" s="2">
-        <v>15.258834999999999</v>
+        <v>15.213181000000001</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>89980000</v>
+        <v>121980000</v>
       </c>
       <c r="B90" s="2">
-        <v>15.483442</v>
+        <v>14.546595</v>
       </c>
       <c r="C90" s="2">
-        <v>15.440348</v>
+        <v>14.572011</v>
       </c>
       <c r="D90" s="2">
-        <v>15.786026</v>
+        <v>14.894731500000001</v>
       </c>
       <c r="E90" s="2">
-        <v>14.927489</v>
+        <v>15.319515000000001</v>
       </c>
       <c r="F90" s="2">
-        <v>15.261684000000001</v>
+        <v>15.65879</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>90980000</v>
+        <v>122980000</v>
       </c>
       <c r="B91" s="2">
-        <v>15.528722</v>
+        <v>14.759591</v>
       </c>
       <c r="C91" s="2">
-        <v>15.492748000000001</v>
+        <v>14.7855835</v>
       </c>
       <c r="D91" s="2">
-        <v>15.837275</v>
+        <v>15.112702000000001</v>
       </c>
       <c r="E91" s="2">
-        <v>14.940541</v>
+        <v>15.700934999999999</v>
       </c>
       <c r="F91" s="2">
-        <v>15.272788</v>
+        <v>16.048306</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>91980000</v>
+        <v>123980000</v>
       </c>
       <c r="B92" s="2">
-        <v>15.815003000000001</v>
+        <v>15.028593000000001</v>
       </c>
       <c r="C92" s="2">
-        <v>15.776073</v>
+        <v>15.054145999999999</v>
       </c>
       <c r="D92" s="2">
-        <v>16.124624000000001</v>
+        <v>15.387187000000001</v>
       </c>
       <c r="E92" s="2">
-        <v>15.2721815</v>
+        <v>16.113092000000002</v>
       </c>
       <c r="F92" s="2">
-        <v>15.609598999999999</v>
+        <v>16.469560000000001</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>92980000</v>
+        <v>124980000</v>
       </c>
       <c r="B93" s="2">
-        <v>17.215889000000001</v>
+        <v>15.678540999999999</v>
       </c>
       <c r="C93" s="2">
-        <v>17.19802</v>
+        <v>15.710991</v>
       </c>
       <c r="D93" s="2">
-        <v>17.576861999999998</v>
+        <v>16.058308</v>
       </c>
       <c r="E93" s="2">
-        <v>16.873906999999999</v>
+        <v>16.711290000000002</v>
       </c>
       <c r="F93" s="2">
-        <v>17.245609999999999</v>
+        <v>17.080719999999999</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>93980000</v>
+        <v>125980000</v>
       </c>
       <c r="B94" s="2">
-        <v>16.34789</v>
+        <v>16.286373000000001</v>
       </c>
       <c r="C94" s="2">
-        <v>16.380521999999999</v>
+        <v>16.349169</v>
       </c>
       <c r="D94" s="2">
-        <v>16.742933000000001</v>
+        <v>16.709724000000001</v>
       </c>
       <c r="E94" s="2">
-        <v>16.427156</v>
+        <v>17.297229999999999</v>
       </c>
       <c r="F94" s="2">
-        <v>16.790600000000001</v>
+        <v>17.678694</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>94980000</v>
+        <v>126980000</v>
       </c>
       <c r="B95" s="2">
-        <v>15.421818</v>
+        <v>16.879854000000002</v>
       </c>
       <c r="C95" s="2">
-        <v>15.457266000000001</v>
+        <v>16.984570000000001</v>
       </c>
       <c r="D95" s="2">
-        <v>15.801613</v>
+        <v>17.357932999999999</v>
       </c>
       <c r="E95" s="2">
-        <v>15.642331</v>
+        <v>17.714873999999998</v>
       </c>
       <c r="F95" s="2">
-        <v>15.990802</v>
+        <v>18.104292000000001</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>95980000</v>
+        <v>127980000</v>
       </c>
       <c r="B96" s="2">
-        <v>15.215209</v>
+        <v>17.488312000000001</v>
       </c>
       <c r="C96" s="2">
-        <v>15.245606</v>
+        <v>17.624960000000002</v>
       </c>
       <c r="D96" s="2">
-        <v>15.585855</v>
+        <v>18.010656000000001</v>
       </c>
       <c r="E96" s="2">
-        <v>15.575718999999999</v>
+        <v>17.882977</v>
       </c>
       <c r="F96" s="2">
-        <v>15.923334000000001</v>
+        <v>18.274319999999999</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>96980000</v>
+        <v>128980000</v>
       </c>
       <c r="B97" s="2">
-        <v>15.716352000000001</v>
+        <v>17.636600000000001</v>
       </c>
       <c r="C97" s="2">
-        <v>15.747280999999999</v>
+        <v>17.76379</v>
       </c>
       <c r="D97" s="2">
-        <v>16.098099999999999</v>
+        <v>18.151436</v>
       </c>
       <c r="E97" s="2">
-        <v>15.974107999999999</v>
+        <v>17.864567000000001</v>
       </c>
       <c r="F97" s="2">
-        <v>16.329979000000002</v>
+        <v>18.254411999999999</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>97980000</v>
+        <v>129980000</v>
       </c>
       <c r="B98" s="2">
-        <v>16.049890000000001</v>
+        <v>18.024616000000002</v>
       </c>
       <c r="C98" s="2">
-        <v>16.083977000000001</v>
+        <v>18.15503</v>
       </c>
       <c r="D98" s="2">
-        <v>16.441890000000001</v>
+        <v>18.549987999999999</v>
       </c>
       <c r="E98" s="2">
-        <v>16.150997</v>
+        <v>17.797512000000001</v>
       </c>
       <c r="F98" s="2">
-        <v>16.510403</v>
+        <v>18.184694</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>98980000</v>
+        <v>130980000</v>
       </c>
       <c r="B99" s="2">
-        <v>16.034458000000001</v>
+        <v>18.09459</v>
       </c>
       <c r="C99" s="2">
-        <v>16.071065999999998</v>
+        <v>18.219850000000001</v>
       </c>
       <c r="D99" s="2">
-        <v>16.428363999999998</v>
+        <v>18.615337</v>
       </c>
       <c r="E99" s="2">
-        <v>16.111886999999999</v>
+        <v>17.484590000000001</v>
       </c>
       <c r="F99" s="2">
-        <v>16.470092999999999</v>
+        <v>17.864117</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>99980000</v>
+        <v>131980000</v>
       </c>
       <c r="B100" s="2">
-        <v>15.870424</v>
+        <v>17.727903000000001</v>
       </c>
       <c r="C100" s="2">
-        <v>15.920302</v>
+        <v>17.845929999999999</v>
       </c>
       <c r="D100" s="2">
-        <v>16.274006</v>
+        <v>18.232589999999998</v>
       </c>
       <c r="E100" s="2">
-        <v>16.001100000000001</v>
+        <v>16.786013000000001</v>
       </c>
       <c r="F100" s="2">
-        <v>16.356598000000002</v>
+        <v>17.149708</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>100980000</v>
+        <v>132980000</v>
       </c>
       <c r="B101" s="2">
-        <v>15.697948999999999</v>
+        <v>17.023306000000002</v>
       </c>
       <c r="C101" s="2">
-        <v>15.759582999999999</v>
+        <v>17.123152000000001</v>
       </c>
       <c r="D101" s="2">
-        <v>16.109562</v>
+        <v>17.495031000000001</v>
       </c>
       <c r="E101" s="2">
-        <v>15.931096</v>
+        <v>15.881168000000001</v>
       </c>
       <c r="F101" s="2">
-        <v>16.284884999999999</v>
+        <v>16.226074000000001</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>101980000</v>
+        <v>133980000</v>
       </c>
       <c r="B102" s="2">
-        <v>15.740429000000001</v>
+        <v>16.000225</v>
       </c>
       <c r="C102" s="2">
-        <v>15.8163185</v>
+        <v>16.080963000000001</v>
       </c>
       <c r="D102" s="2">
-        <v>16.167262999999998</v>
+        <v>16.432106000000001</v>
       </c>
       <c r="E102" s="2">
-        <v>15.904310000000001</v>
+        <v>14.948202</v>
       </c>
       <c r="F102" s="2">
-        <v>16.257207999999999</v>
+        <v>15.274609999999999</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>102980000</v>
+        <v>134980000</v>
       </c>
       <c r="B103" s="2">
-        <v>15.536490000000001</v>
+        <v>15.0314</v>
       </c>
       <c r="C103" s="2">
-        <v>15.623346</v>
+        <v>15.088283000000001</v>
       </c>
       <c r="D103" s="2">
-        <v>15.969970999999999</v>
+        <v>15.419489</v>
       </c>
       <c r="E103" s="2">
-        <v>15.740849499999999</v>
+        <v>14.099359</v>
       </c>
       <c r="F103" s="2">
-        <v>16.09008</v>
+        <v>14.408856</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>103980000</v>
+        <v>135980000</v>
       </c>
       <c r="B104" s="2">
-        <v>15.250384</v>
+        <v>14.251085</v>
       </c>
       <c r="C104" s="2">
-        <v>15.350137999999999</v>
+        <v>14.27764</v>
       </c>
       <c r="D104" s="2">
-        <v>15.690906</v>
+        <v>14.592428</v>
       </c>
       <c r="E104" s="2">
-        <v>15.708569000000001</v>
+        <v>13.498925</v>
       </c>
       <c r="F104" s="2">
-        <v>16.057295</v>
+        <v>13.796544000000001</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>104980000</v>
+        <v>136980000</v>
       </c>
       <c r="B105" s="2">
-        <v>15.137567499999999</v>
+        <v>13.572279</v>
       </c>
       <c r="C105" s="2">
-        <v>15.231351</v>
+        <v>13.578113999999999</v>
       </c>
       <c r="D105" s="2">
-        <v>15.569806</v>
+        <v>13.878269</v>
       </c>
       <c r="E105" s="2">
-        <v>16.002033000000001</v>
+        <v>13.128410000000001</v>
       </c>
       <c r="F105" s="2">
-        <v>16.357614999999999</v>
+        <v>13.418626</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>105980000</v>
+        <v>137980000</v>
       </c>
       <c r="B106" s="2">
-        <v>15.094654</v>
+        <v>13.203189</v>
       </c>
       <c r="C106" s="2">
-        <v>15.190047</v>
+        <v>13.22312</v>
       </c>
       <c r="D106" s="2">
-        <v>15.527968</v>
+        <v>13.515888</v>
       </c>
       <c r="E106" s="2">
-        <v>16.168607999999999</v>
+        <v>13.091820999999999</v>
       </c>
       <c r="F106" s="2">
-        <v>16.528300000000002</v>
+        <v>13.381682</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>106980000</v>
+        <v>138980000</v>
       </c>
       <c r="B107" s="2">
-        <v>15.780438999999999</v>
+        <v>13.144246000000001</v>
       </c>
       <c r="C107" s="2">
-        <v>15.904418</v>
+        <v>13.170317000000001</v>
       </c>
       <c r="D107" s="2">
-        <v>16.257995999999999</v>
+        <v>13.462422</v>
       </c>
       <c r="E107" s="2">
-        <v>16.800986999999999</v>
+        <v>13.366773999999999</v>
       </c>
       <c r="F107" s="2">
-        <v>17.174498</v>
+        <v>13.663237000000001</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>107980000</v>
+        <v>139980000</v>
       </c>
       <c r="B108" s="2">
-        <v>16.697503999999999</v>
+        <v>13.459161</v>
       </c>
       <c r="C108" s="2">
-        <v>16.869945999999999</v>
+        <v>13.49263</v>
       </c>
       <c r="D108" s="2">
-        <v>17.243697999999998</v>
+        <v>13.791788</v>
       </c>
       <c r="E108" s="2">
-        <v>17.571363000000002</v>
+        <v>13.876436</v>
       </c>
       <c r="F108" s="2">
-        <v>17.960657000000001</v>
+        <v>14.184104</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>108980000</v>
+        <v>140980000</v>
       </c>
       <c r="B109" s="2">
-        <v>17.771404</v>
+        <v>13.684278000000001</v>
       </c>
       <c r="C109" s="2">
-        <v>17.960443000000001</v>
+        <v>13.721271</v>
       </c>
       <c r="D109" s="2">
-        <v>18.355705</v>
+        <v>14.025489</v>
       </c>
       <c r="E109" s="2">
-        <v>18.076381999999999</v>
+        <v>14.40391</v>
       </c>
       <c r="F109" s="2">
-        <v>18.474194000000001</v>
+        <v>14.723262999999999</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>109980000</v>
+        <v>141980000</v>
       </c>
       <c r="B110" s="2">
-        <v>18.791668000000001</v>
+        <v>13.952019</v>
       </c>
       <c r="C110" s="2">
-        <v>18.972726999999999</v>
+        <v>13.992273000000001</v>
       </c>
       <c r="D110" s="2">
-        <v>19.387174999999999</v>
+        <v>14.302281000000001</v>
       </c>
       <c r="E110" s="2">
-        <v>18.447026999999999</v>
+        <v>14.835229</v>
       </c>
       <c r="F110" s="2">
-        <v>18.849989999999998</v>
+        <v>15.163912</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>110980000</v>
+        <v>142980000</v>
       </c>
       <c r="B111" s="2">
-        <v>19.21894</v>
+        <v>14.1586075</v>
       </c>
       <c r="C111" s="2">
-        <v>19.391777000000001</v>
+        <v>14.198549999999999</v>
       </c>
       <c r="D111" s="2">
-        <v>19.812479</v>
+        <v>14.512838</v>
       </c>
       <c r="E111" s="2">
-        <v>18.364091999999999</v>
+        <v>15.221871</v>
       </c>
       <c r="F111" s="2">
-        <v>18.762499999999999</v>
+        <v>15.558812</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>111980000</v>
+        <v>143980000</v>
       </c>
       <c r="B112" s="2">
-        <v>18.67407</v>
+        <v>16.502682</v>
       </c>
       <c r="C112" s="2">
-        <v>18.829350000000002</v>
+        <v>16.558202999999999</v>
       </c>
       <c r="D112" s="2">
-        <v>19.236357000000002</v>
+        <v>16.925353999999999</v>
       </c>
       <c r="E112" s="2">
-        <v>17.696843999999999</v>
+        <v>17.579723000000001</v>
       </c>
       <c r="F112" s="2">
-        <v>18.079371999999999</v>
+        <v>17.969525999999998</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>112980000</v>
+        <v>144980000</v>
       </c>
       <c r="B113" s="2">
-        <v>17.41508</v>
+        <v>15.887416</v>
       </c>
       <c r="C113" s="2">
-        <v>17.53454</v>
+        <v>15.949389</v>
       </c>
       <c r="D113" s="2">
-        <v>17.91535</v>
+        <v>16.303621</v>
       </c>
       <c r="E113" s="2">
-        <v>16.416312999999999</v>
+        <v>16.8385</v>
       </c>
       <c r="F113" s="2">
-        <v>16.772839000000001</v>
+        <v>17.212478999999998</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>113980000</v>
+        <v>145980000</v>
       </c>
       <c r="B114" s="2">
-        <v>16.291985</v>
+        <v>16.561848000000001</v>
       </c>
       <c r="C114" s="2">
-        <v>16.388424000000001</v>
+        <v>16.649173999999999</v>
       </c>
       <c r="D114" s="2">
-        <v>16.746919999999999</v>
+        <v>17.017954</v>
       </c>
       <c r="E114" s="2">
-        <v>15.257028999999999</v>
+        <v>17.003817000000002</v>
       </c>
       <c r="F114" s="2">
-        <v>15.590775000000001</v>
+        <v>17.380451000000001</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>114980000</v>
+        <v>146980000</v>
       </c>
       <c r="B115" s="2">
-        <v>15.742314</v>
+        <v>17.391071</v>
       </c>
       <c r="C115" s="2">
-        <v>15.833492</v>
+        <v>17.465496000000002</v>
       </c>
       <c r="D115" s="2">
-        <v>16.181349999999998</v>
+        <v>17.850159999999999</v>
       </c>
       <c r="E115" s="2">
-        <v>14.689897999999999</v>
+        <v>17.286857999999999</v>
       </c>
       <c r="F115" s="2">
-        <v>15.01263</v>
+        <v>17.667587000000001</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>115980000</v>
+        <v>147980000</v>
       </c>
       <c r="B116" s="2">
-        <v>15.434345</v>
+        <v>18.142797000000002</v>
       </c>
       <c r="C116" s="2">
-        <v>15.50822</v>
+        <v>18.215813000000001</v>
       </c>
       <c r="D116" s="2">
-        <v>15.84999</v>
+        <v>18.614564999999999</v>
       </c>
       <c r="E116" s="2">
-        <v>14.550856</v>
+        <v>17.455148999999999</v>
       </c>
       <c r="F116" s="2">
-        <v>14.871527</v>
+        <v>17.837247999999999</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>116980000</v>
+        <v>148980000</v>
       </c>
       <c r="B117" s="2">
-        <v>15.004394</v>
+        <v>17.613188000000001</v>
       </c>
       <c r="C117" s="2">
-        <v>15.050096999999999</v>
+        <v>17.677444000000001</v>
       </c>
       <c r="D117" s="2">
-        <v>15.382173999999999</v>
+        <v>18.063032</v>
       </c>
       <c r="E117" s="2">
-        <v>14.409302</v>
+        <v>16.75544</v>
       </c>
       <c r="F117" s="2">
-        <v>14.727238</v>
+        <v>17.120918</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>117980000</v>
+        <v>149980000</v>
       </c>
       <c r="B118" s="2">
-        <v>14.3965225</v>
+        <v>16.476807000000001</v>
       </c>
       <c r="C118" s="2">
-        <v>14.418106999999999</v>
+        <v>16.538864</v>
       </c>
       <c r="D118" s="2">
-        <v>14.736789999999999</v>
+        <v>16.900572</v>
       </c>
       <c r="E118" s="2">
-        <v>14.16722</v>
+        <v>15.440182999999999</v>
       </c>
       <c r="F118" s="2">
-        <v>14.480357</v>
+        <v>15.777862000000001</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>118980000</v>
+        <v>150980000</v>
       </c>
       <c r="B119" s="2">
-        <v>14.025397</v>
+        <v>15.258883000000001</v>
       </c>
       <c r="C119" s="2">
-        <v>14.040201</v>
+        <v>15.31681</v>
       </c>
       <c r="D119" s="2">
-        <v>14.351414999999999</v>
+        <v>15.653598000000001</v>
       </c>
       <c r="E119" s="2">
-        <v>14.142509</v>
+        <v>14.296023</v>
       </c>
       <c r="F119" s="2">
-        <v>14.455990999999999</v>
+        <v>14.610367</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>119980000</v>
+        <v>151980000</v>
       </c>
       <c r="B120" s="2">
-        <v>14.069053</v>
+        <v>14.741873999999999</v>
       </c>
       <c r="C120" s="2">
-        <v>14.089702000000001</v>
+        <v>14.799552</v>
       </c>
       <c r="D120" s="2">
-        <v>14.402165</v>
+        <v>15.125973999999999</v>
       </c>
       <c r="E120" s="2">
-        <v>14.420724999999999</v>
+        <v>13.853084000000001</v>
       </c>
       <c r="F120" s="2">
-        <v>14.740531000000001</v>
+        <v>14.15863</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>120980000</v>
+        <v>152980000</v>
       </c>
       <c r="B121" s="2">
-        <v>14.35205</v>
+        <v>14.868444</v>
       </c>
       <c r="C121" s="2">
-        <v>14.375113000000001</v>
+        <v>14.929766000000001</v>
       </c>
       <c r="D121" s="2">
-        <v>14.693735999999999</v>
+        <v>15.25944</v>
       </c>
       <c r="E121" s="2">
-        <v>14.883293</v>
+        <v>14.025</v>
       </c>
       <c r="F121" s="2">
-        <v>15.213181000000001</v>
+        <v>14.334695999999999</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>121980000</v>
+        <v>153980000</v>
       </c>
       <c r="B122" s="2">
-        <v>14.546595</v>
+        <v>15.206757</v>
       </c>
       <c r="C122" s="2">
-        <v>14.572011</v>
+        <v>15.269940999999999</v>
       </c>
       <c r="D122" s="2">
-        <v>14.894731500000001</v>
+        <v>15.60689</v>
       </c>
       <c r="E122" s="2">
-        <v>15.319515000000001</v>
+        <v>14.368463999999999</v>
       </c>
       <c r="F122" s="2">
-        <v>15.65879</v>
+        <v>14.685522000000001</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>122980000</v>
+        <v>154980000</v>
       </c>
       <c r="B123" s="2">
-        <v>14.759591</v>
+        <v>15.379091000000001</v>
       </c>
       <c r="C123" s="2">
-        <v>14.7855835</v>
+        <v>15.447293</v>
       </c>
       <c r="D123" s="2">
-        <v>15.112702000000001</v>
+        <v>15.7878895</v>
       </c>
       <c r="E123" s="2">
-        <v>15.700934999999999</v>
+        <v>14.544128000000001</v>
       </c>
       <c r="F123" s="2">
-        <v>16.048306</v>
+        <v>14.864811</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>123980000</v>
+        <v>155980000</v>
       </c>
       <c r="B124" s="2">
-        <v>15.028593000000001</v>
+        <v>15.301383</v>
       </c>
       <c r="C124" s="2">
-        <v>15.054145999999999</v>
+        <v>15.371366</v>
       </c>
       <c r="D124" s="2">
-        <v>15.387187000000001</v>
+        <v>15.710158</v>
       </c>
       <c r="E124" s="2">
-        <v>16.113092000000002</v>
+        <v>14.503602000000001</v>
       </c>
       <c r="F124" s="2">
-        <v>16.469560000000001</v>
+        <v>14.823269</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>124980000</v>
+        <v>156980000</v>
       </c>
       <c r="B125" s="2">
-        <v>15.678540999999999</v>
+        <v>15.096552000000001</v>
       </c>
       <c r="C125" s="2">
-        <v>15.710991</v>
+        <v>15.169473999999999</v>
       </c>
       <c r="D125" s="2">
-        <v>16.058308</v>
+        <v>15.504273</v>
       </c>
       <c r="E125" s="2">
-        <v>16.711290000000002</v>
+        <v>14.327494</v>
       </c>
       <c r="F125" s="2">
-        <v>17.080719999999999</v>
+        <v>14.643711</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>125980000</v>
+        <v>157980000</v>
       </c>
       <c r="B126" s="2">
-        <v>16.286373000000001</v>
+        <v>14.89845</v>
       </c>
       <c r="C126" s="2">
-        <v>16.349169</v>
+        <v>14.977503</v>
       </c>
       <c r="D126" s="2">
-        <v>16.709724000000001</v>
+        <v>15.30837</v>
       </c>
       <c r="E126" s="2">
-        <v>17.297229999999999</v>
+        <v>14.151327</v>
       </c>
       <c r="F126" s="2">
-        <v>17.678694</v>
+        <v>14.463943499999999</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>126980000</v>
+        <v>158980000</v>
       </c>
       <c r="B127" s="2">
-        <v>16.879854000000002</v>
+        <v>14.684191999999999</v>
       </c>
       <c r="C127" s="2">
-        <v>16.984570000000001</v>
+        <v>14.766375999999999</v>
       </c>
       <c r="D127" s="2">
-        <v>17.357932999999999</v>
+        <v>15.09314</v>
       </c>
       <c r="E127" s="2">
-        <v>17.714873999999998</v>
+        <v>13.947248</v>
       </c>
       <c r="F127" s="2">
-        <v>18.104292000000001</v>
+        <v>14.255884999999999</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>127980000</v>
+        <v>159980000</v>
       </c>
       <c r="B128" s="2">
-        <v>17.488312000000001</v>
+        <v>14.230651999999999</v>
       </c>
       <c r="C128" s="2">
-        <v>17.624960000000002</v>
+        <v>14.309070999999999</v>
       </c>
       <c r="D128" s="2">
-        <v>18.010656000000001</v>
+        <v>14.626284</v>
       </c>
       <c r="E128" s="2">
-        <v>17.882977</v>
+        <v>13.78368</v>
       </c>
       <c r="F128" s="2">
-        <v>18.274319999999999</v>
+        <v>14.089247</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>128980000</v>
+        <v>160980000</v>
       </c>
       <c r="B129" s="2">
-        <v>17.636600000000001</v>
+        <v>13.053687</v>
       </c>
       <c r="C129" s="2">
-        <v>17.76379</v>
+        <v>13.113965</v>
       </c>
       <c r="D129" s="2">
-        <v>18.151436</v>
+        <v>13.404754000000001</v>
       </c>
       <c r="E129" s="2">
-        <v>17.864567000000001</v>
+        <v>13.320408</v>
       </c>
       <c r="F129" s="2">
-        <v>18.254411999999999</v>
+        <v>13.615774999999999</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>129980000</v>
+        <v>161980000</v>
       </c>
       <c r="B130" s="2">
-        <v>18.024616000000002</v>
+        <v>15.649118</v>
       </c>
       <c r="C130" s="2">
-        <v>18.15503</v>
+        <v>15.682509</v>
       </c>
       <c r="D130" s="2">
-        <v>18.549987999999999</v>
+        <v>16.029527999999999</v>
       </c>
       <c r="E130" s="2">
-        <v>17.797512000000001</v>
+        <v>15.933687000000001</v>
       </c>
       <c r="F130" s="2">
-        <v>18.184694</v>
+        <v>16.286263999999999</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>130980000</v>
+        <v>162980000</v>
       </c>
       <c r="B131" s="2">
-        <v>18.09459</v>
+        <v>16.444946000000002</v>
       </c>
       <c r="C131" s="2">
-        <v>18.219850000000001</v>
+        <v>16.461447</v>
       </c>
       <c r="D131" s="2">
-        <v>18.615337</v>
+        <v>16.825652999999999</v>
       </c>
       <c r="E131" s="2">
-        <v>17.484590000000001</v>
+        <v>16.681498000000001</v>
       </c>
       <c r="F131" s="2">
-        <v>17.864117</v>
+        <v>17.050571000000001</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>131980000</v>
+        <v>163980000</v>
       </c>
       <c r="B132" s="2">
-        <v>17.727903000000001</v>
+        <v>17.191032</v>
       </c>
       <c r="C132" s="2">
-        <v>17.845929999999999</v>
+        <v>17.193328999999999</v>
       </c>
       <c r="D132" s="2">
-        <v>18.232589999999998</v>
+        <v>17.573463</v>
       </c>
       <c r="E132" s="2">
-        <v>16.786013000000001</v>
+        <v>17.128585999999999</v>
       </c>
       <c r="F132" s="2">
-        <v>17.149708</v>
+        <v>17.507290000000001</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>132980000</v>
+        <v>164980000</v>
       </c>
       <c r="B133" s="2">
-        <v>17.023306000000002</v>
+        <v>17.463025999999999</v>
       </c>
       <c r="C133" s="2">
-        <v>17.123152000000001</v>
+        <v>17.453679999999999</v>
       </c>
       <c r="D133" s="2">
-        <v>17.495031000000001</v>
+        <v>17.839409</v>
       </c>
       <c r="E133" s="2">
-        <v>15.881168000000001</v>
+        <v>16.963442000000001</v>
       </c>
       <c r="F133" s="2">
-        <v>16.226074000000001</v>
+        <v>17.338336999999999</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>133980000</v>
+        <v>165980000</v>
       </c>
       <c r="B134" s="2">
-        <v>16.000225</v>
+        <v>17.204597</v>
       </c>
       <c r="C134" s="2">
-        <v>16.080963000000001</v>
+        <v>17.191410000000001</v>
       </c>
       <c r="D134" s="2">
-        <v>16.432106000000001</v>
+        <v>17.57133</v>
       </c>
       <c r="E134" s="2">
-        <v>14.948202</v>
+        <v>16.389462000000002</v>
       </c>
       <c r="F134" s="2">
-        <v>15.274609999999999</v>
+        <v>16.751657000000002</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>134980000</v>
+        <v>166980000</v>
       </c>
       <c r="B135" s="2">
-        <v>15.0314</v>
+        <v>16.664017000000001</v>
       </c>
       <c r="C135" s="2">
-        <v>15.088283000000001</v>
+        <v>16.647596</v>
       </c>
       <c r="D135" s="2">
-        <v>15.419489</v>
+        <v>17.015771999999998</v>
       </c>
       <c r="E135" s="2">
-        <v>14.099359</v>
+        <v>15.509312</v>
       </c>
       <c r="F135" s="2">
-        <v>14.408856</v>
+        <v>15.852312</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>135980000</v>
+        <v>167980000</v>
       </c>
       <c r="B136" s="2">
-        <v>14.251085</v>
+        <v>15.692028000000001</v>
       </c>
       <c r="C136" s="2">
-        <v>14.27764</v>
+        <v>15.669041999999999</v>
       </c>
       <c r="D136" s="2">
-        <v>14.592428</v>
+        <v>16.016514000000001</v>
       </c>
       <c r="E136" s="2">
-        <v>13.498925</v>
+        <v>14.46514</v>
       </c>
       <c r="F136" s="2">
-        <v>13.796544000000001</v>
+        <v>14.785914</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>136980000</v>
+        <v>168980000</v>
       </c>
       <c r="B137" s="2">
-        <v>13.572279</v>
+        <v>13.991574</v>
       </c>
       <c r="C137" s="2">
-        <v>13.578113999999999</v>
+        <v>13.970416999999999</v>
       </c>
       <c r="D137" s="2">
-        <v>13.878269</v>
+        <v>14.281309</v>
       </c>
       <c r="E137" s="2">
-        <v>13.128410000000001</v>
+        <v>12.749568999999999</v>
       </c>
       <c r="F137" s="2">
-        <v>13.418626</v>
+        <v>13.033294</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>137980000</v>
+        <v>169980000</v>
       </c>
       <c r="B138" s="2">
-        <v>13.203189</v>
+        <v>12.541407</v>
       </c>
       <c r="C138" s="2">
-        <v>13.22312</v>
+        <v>12.526964</v>
       </c>
       <c r="D138" s="2">
-        <v>13.515888</v>
+        <v>12.806053</v>
       </c>
       <c r="E138" s="2">
-        <v>13.091820999999999</v>
+        <v>11.210407</v>
       </c>
       <c r="F138" s="2">
-        <v>13.381682</v>
+        <v>11.460163</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>138980000</v>
+        <v>170980000</v>
       </c>
       <c r="B139" s="2">
-        <v>13.144246000000001</v>
+        <v>12.129033</v>
       </c>
       <c r="C139" s="2">
-        <v>13.170317000000001</v>
+        <v>12.11749</v>
       </c>
       <c r="D139" s="2">
-        <v>13.462422</v>
+        <v>12.386892</v>
       </c>
       <c r="E139" s="2">
-        <v>13.366773999999999</v>
+        <v>10.999067999999999</v>
       </c>
       <c r="F139" s="2">
-        <v>13.663237000000001</v>
+        <v>11.243605000000001</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>139980000</v>
+        <v>171980000</v>
       </c>
       <c r="B140" s="2">
-        <v>13.459161</v>
+        <v>12.476770999999999</v>
       </c>
       <c r="C140" s="2">
-        <v>13.49263</v>
+        <v>12.465275999999999</v>
       </c>
       <c r="D140" s="2">
-        <v>13.791788</v>
+        <v>12.741553</v>
       </c>
       <c r="E140" s="2">
-        <v>13.876436</v>
+        <v>11.275288</v>
       </c>
       <c r="F140" s="2">
-        <v>14.184104</v>
+        <v>11.52519</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>140980000</v>
+        <v>172980000</v>
       </c>
       <c r="B141" s="2">
-        <v>13.684278000000001</v>
+        <v>12.528456</v>
       </c>
       <c r="C141" s="2">
-        <v>13.721271</v>
+        <v>12.5181465</v>
       </c>
       <c r="D141" s="2">
-        <v>14.025489</v>
+        <v>12.794694</v>
       </c>
       <c r="E141" s="2">
-        <v>14.40391</v>
+        <v>11.461008</v>
       </c>
       <c r="F141" s="2">
-        <v>14.723262999999999</v>
+        <v>11.714202</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>141980000</v>
+        <v>173980000</v>
       </c>
       <c r="B142" s="2">
-        <v>13.952019</v>
+        <v>12.610632000000001</v>
       </c>
       <c r="C142" s="2">
-        <v>13.992273000000001</v>
+        <v>12.598601</v>
       </c>
       <c r="D142" s="2">
-        <v>14.302281000000001</v>
+        <v>12.876742999999999</v>
       </c>
       <c r="E142" s="2">
-        <v>14.835229</v>
+        <v>11.43572</v>
       </c>
       <c r="F142" s="2">
-        <v>15.163912</v>
+        <v>11.6881895</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>142980000</v>
+        <v>174980000</v>
       </c>
       <c r="B143" s="2">
-        <v>14.1586075</v>
+        <v>12.35228</v>
       </c>
       <c r="C143" s="2">
-        <v>14.198549999999999</v>
+        <v>12.343707999999999</v>
       </c>
       <c r="D143" s="2">
-        <v>14.512838</v>
+        <v>12.616042999999999</v>
       </c>
       <c r="E143" s="2">
-        <v>15.221871</v>
+        <v>11.2910185</v>
       </c>
       <c r="F143" s="2">
-        <v>15.558812</v>
+        <v>11.540129</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>143980000</v>
+        <v>175980000</v>
       </c>
       <c r="B144" s="2">
-        <v>16.502682</v>
+        <v>11.985936000000001</v>
       </c>
       <c r="C144" s="2">
-        <v>16.558202999999999</v>
+        <v>11.977762</v>
       </c>
       <c r="D144" s="2">
-        <v>16.925353999999999</v>
+        <v>12.242082</v>
       </c>
       <c r="E144" s="2">
-        <v>17.579723000000001</v>
+        <v>10.775778000000001</v>
       </c>
       <c r="F144" s="2">
-        <v>17.969525999999998</v>
+        <v>11.013574</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>144980000</v>
+        <v>176980000</v>
       </c>
       <c r="B145" s="2">
-        <v>15.887416</v>
+        <v>11.255887</v>
       </c>
       <c r="C145" s="2">
-        <v>15.949389</v>
+        <v>11.248822000000001</v>
       </c>
       <c r="D145" s="2">
-        <v>16.303621</v>
+        <v>11.496458000000001</v>
       </c>
       <c r="E145" s="2">
-        <v>16.8385</v>
+        <v>10.104376999999999</v>
       </c>
       <c r="F145" s="2">
-        <v>17.212478999999998</v>
+        <v>10.326817999999999</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>145980000</v>
+        <v>177980000</v>
       </c>
       <c r="B146" s="2">
-        <v>16.561848000000001</v>
+        <v>11.670004</v>
       </c>
       <c r="C146" s="2">
-        <v>16.649173999999999</v>
+        <v>11.664393</v>
       </c>
       <c r="D146" s="2">
-        <v>17.017954</v>
+        <v>11.919705</v>
       </c>
       <c r="E146" s="2">
-        <v>17.003817000000002</v>
+        <v>10.650111000000001</v>
       </c>
       <c r="F146" s="2">
-        <v>17.380451000000001</v>
+        <v>10.883222999999999</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>146980000</v>
+        <v>178980000</v>
       </c>
       <c r="B147" s="2">
-        <v>17.391071</v>
+        <v>12.108457</v>
       </c>
       <c r="C147" s="2">
-        <v>17.465496000000002</v>
+        <v>12.108598000000001</v>
       </c>
       <c r="D147" s="2">
-        <v>17.850159999999999</v>
+        <v>12.371794</v>
       </c>
       <c r="E147" s="2">
-        <v>17.286857999999999</v>
+        <v>11.027087</v>
       </c>
       <c r="F147" s="2">
-        <v>17.667587000000001</v>
+        <v>11.266775000000001</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>147980000</v>
+        <v>179980000</v>
       </c>
       <c r="B148" s="2">
-        <v>18.142797000000002</v>
+        <v>11.800049</v>
       </c>
       <c r="C148" s="2">
-        <v>18.215813000000001</v>
+        <v>11.807979</v>
       </c>
       <c r="D148" s="2">
-        <v>18.614564999999999</v>
+        <v>12.063203</v>
       </c>
       <c r="E148" s="2">
-        <v>17.455148999999999</v>
+        <v>10.849114999999999</v>
       </c>
       <c r="F148" s="2">
-        <v>17.837247999999999</v>
+        <v>11.083615</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>148980000</v>
+        <v>180980000</v>
       </c>
       <c r="B149" s="2">
-        <v>17.613188000000001</v>
+        <v>11.456689000000001</v>
       </c>
       <c r="C149" s="2">
-        <v>17.677444000000001</v>
+        <v>11.473209000000001</v>
       </c>
       <c r="D149" s="2">
-        <v>18.063032</v>
+        <v>11.720122</v>
       </c>
       <c r="E149" s="2">
-        <v>16.75544</v>
+        <v>10.435798999999999</v>
       </c>
       <c r="F149" s="2">
-        <v>17.120918</v>
+        <v>10.660387</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>149980000</v>
+        <v>181980000</v>
       </c>
       <c r="B150" s="2">
-        <v>16.476807000000001</v>
+        <v>11.1258745</v>
       </c>
       <c r="C150" s="2">
-        <v>16.538864</v>
+        <v>11.146172999999999</v>
       </c>
       <c r="D150" s="2">
-        <v>16.900572</v>
+        <v>11.385141000000001</v>
       </c>
       <c r="E150" s="2">
-        <v>15.440182999999999</v>
+        <v>10.138453999999999</v>
       </c>
       <c r="F150" s="2">
-        <v>15.777862000000001</v>
+        <v>10.355819</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>150980000</v>
+        <v>182980000</v>
       </c>
       <c r="B151" s="2">
-        <v>15.258883000000001</v>
+        <v>11.124114000000001</v>
       </c>
       <c r="C151" s="2">
-        <v>15.31681</v>
+        <v>11.149509999999999</v>
       </c>
       <c r="D151" s="2">
-        <v>15.653598000000001</v>
+        <v>11.387257999999999</v>
       </c>
       <c r="E151" s="2">
-        <v>14.296023</v>
+        <v>10.015803999999999</v>
       </c>
       <c r="F151" s="2">
-        <v>14.610367</v>
+        <v>10.229376999999999</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>151980000</v>
+        <v>183980000</v>
       </c>
       <c r="B152" s="2">
-        <v>14.741873999999999</v>
+        <v>10.860491</v>
       </c>
       <c r="C152" s="2">
-        <v>14.799552</v>
+        <v>10.8860855</v>
       </c>
       <c r="D152" s="2">
-        <v>15.125973999999999</v>
+        <v>11.117492</v>
       </c>
       <c r="E152" s="2">
-        <v>13.853084000000001</v>
+        <v>9.9330839999999991</v>
       </c>
       <c r="F152" s="2">
-        <v>14.15863</v>
+        <v>10.144232000000001</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>152980000</v>
+        <v>184980000</v>
       </c>
       <c r="B153" s="2">
-        <v>14.868444</v>
+        <v>10.698312</v>
       </c>
       <c r="C153" s="2">
-        <v>14.929766000000001</v>
+        <v>10.726257</v>
       </c>
       <c r="D153" s="2">
-        <v>15.25944</v>
+        <v>10.95321</v>
       </c>
       <c r="E153" s="2">
-        <v>14.025</v>
+        <v>9.8358749999999997</v>
       </c>
       <c r="F153" s="2">
-        <v>14.334695999999999</v>
+        <v>10.043988000000001</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>153980000</v>
+        <v>185980000</v>
       </c>
       <c r="B154" s="2">
-        <v>15.206757</v>
+        <v>10.653376</v>
       </c>
       <c r="C154" s="2">
-        <v>15.269940999999999</v>
+        <v>10.683671</v>
       </c>
       <c r="D154" s="2">
-        <v>15.60689</v>
+        <v>10.908953</v>
       </c>
       <c r="E154" s="2">
-        <v>14.368463999999999</v>
+        <v>9.7236159999999998</v>
       </c>
       <c r="F154" s="2">
-        <v>14.685522000000001</v>
+        <v>9.9286539999999999</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>154980000</v>
+        <v>186980000</v>
       </c>
       <c r="B155" s="2">
-        <v>15.379091000000001</v>
+        <v>10.627597</v>
       </c>
       <c r="C155" s="2">
-        <v>15.447293</v>
+        <v>10.660698999999999</v>
       </c>
       <c r="D155" s="2">
-        <v>15.7878895</v>
+        <v>10.884615</v>
       </c>
       <c r="E155" s="2">
-        <v>14.544128000000001</v>
+        <v>9.6424059999999994</v>
       </c>
       <c r="F155" s="2">
-        <v>14.864811</v>
+        <v>9.8449340000000003</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>155980000</v>
+        <v>187980000</v>
       </c>
       <c r="B156" s="2">
-        <v>15.301383</v>
+        <v>10.495984999999999</v>
       </c>
       <c r="C156" s="2">
-        <v>15.371366</v>
+        <v>10.529608</v>
       </c>
       <c r="D156" s="2">
-        <v>15.710158</v>
+        <v>10.750007999999999</v>
       </c>
       <c r="E156" s="2">
-        <v>14.503602000000001</v>
+        <v>9.5420859999999994</v>
       </c>
       <c r="F156" s="2">
-        <v>14.823269</v>
+        <v>9.7418165000000005</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>156980000</v>
+        <v>188980000</v>
       </c>
       <c r="B157" s="2">
-        <v>15.096552000000001</v>
+        <v>10.511053</v>
       </c>
       <c r="C157" s="2">
-        <v>15.169473999999999</v>
+        <v>10.547112</v>
       </c>
       <c r="D157" s="2">
-        <v>15.504273</v>
+        <v>10.767173</v>
       </c>
       <c r="E157" s="2">
-        <v>14.327494</v>
+        <v>9.5109139999999996</v>
       </c>
       <c r="F157" s="2">
-        <v>14.643711</v>
+        <v>9.7093530000000001</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>157980000</v>
+        <v>189980000</v>
       </c>
       <c r="B158" s="2">
-        <v>14.89845</v>
+        <v>10.471882000000001</v>
       </c>
       <c r="C158" s="2">
-        <v>14.977503</v>
+        <v>10.507403</v>
       </c>
       <c r="D158" s="2">
-        <v>15.30837</v>
+        <v>10.725720000000001</v>
       </c>
       <c r="E158" s="2">
-        <v>14.151327</v>
+        <v>9.5294450000000008</v>
       </c>
       <c r="F158" s="2">
-        <v>14.463943499999999</v>
+        <v>9.7274429999999992</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>158980000</v>
+        <v>190980000</v>
       </c>
       <c r="B159" s="2">
-        <v>14.684191999999999</v>
+        <v>10.605464</v>
       </c>
       <c r="C159" s="2">
-        <v>14.766375999999999</v>
+        <v>10.642899999999999</v>
       </c>
       <c r="D159" s="2">
-        <v>15.09314</v>
+        <v>10.863353999999999</v>
       </c>
       <c r="E159" s="2">
-        <v>13.947248</v>
+        <v>9.5554319999999997</v>
       </c>
       <c r="F159" s="2">
-        <v>14.255884999999999</v>
+        <v>9.7533619999999992</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>159980000</v>
+        <v>191980000</v>
       </c>
       <c r="B160" s="2">
-        <v>14.230651999999999</v>
+        <v>10.597572</v>
       </c>
       <c r="C160" s="2">
-        <v>14.309070999999999</v>
+        <v>10.634073000000001</v>
       </c>
       <c r="D160" s="2">
-        <v>14.626284</v>
+        <v>10.853621499999999</v>
       </c>
       <c r="E160" s="2">
-        <v>13.78368</v>
+        <v>9.5340070000000008</v>
       </c>
       <c r="F160" s="2">
-        <v>14.089247</v>
+        <v>9.7308444999999999</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>160980000</v>
+        <v>192980000</v>
       </c>
       <c r="B161" s="2">
-        <v>13.053687</v>
+        <v>10.460604</v>
       </c>
       <c r="C161" s="2">
-        <v>13.113965</v>
+        <v>10.497292</v>
       </c>
       <c r="D161" s="2">
-        <v>13.404754000000001</v>
+        <v>10.713241999999999</v>
       </c>
       <c r="E161" s="2">
-        <v>13.320408</v>
+        <v>9.5038199999999993</v>
       </c>
       <c r="F161" s="2">
-        <v>13.615774999999999</v>
+        <v>9.6993320000000001</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>161980000</v>
+        <v>193980000</v>
       </c>
       <c r="B162" s="2">
-        <v>15.649118</v>
+        <v>10.574209</v>
       </c>
       <c r="C162" s="2">
-        <v>15.682509</v>
+        <v>10.614521</v>
       </c>
       <c r="D162" s="2">
-        <v>16.029527999999999</v>
+        <v>10.832160999999999</v>
       </c>
       <c r="E162" s="2">
-        <v>15.933687000000001</v>
+        <v>9.4919709999999995</v>
       </c>
       <c r="F162" s="2">
-        <v>16.286263999999999</v>
+        <v>9.6865939999999995</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>162980000</v>
+        <v>194980000</v>
       </c>
       <c r="B163" s="2">
-        <v>16.444946000000002</v>
+        <v>10.441046</v>
       </c>
       <c r="C163" s="2">
-        <v>16.461447</v>
+        <v>10.483628</v>
       </c>
       <c r="D163" s="2">
-        <v>16.825652999999999</v>
+        <v>10.697831000000001</v>
       </c>
       <c r="E163" s="2">
-        <v>16.681498000000001</v>
+        <v>9.5197350000000007</v>
       </c>
       <c r="F163" s="2">
-        <v>17.050571000000001</v>
+        <v>9.7142429999999997</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>163980000</v>
+        <v>195980000</v>
       </c>
       <c r="B164" s="2">
-        <v>17.191032</v>
+        <v>10.54003</v>
       </c>
       <c r="C164" s="2">
-        <v>17.193328999999999</v>
+        <v>10.587002999999999</v>
       </c>
       <c r="D164" s="2">
-        <v>17.573463</v>
+        <v>10.802659999999999</v>
       </c>
       <c r="E164" s="2">
-        <v>17.128585999999999</v>
+        <v>9.5548009999999994</v>
       </c>
       <c r="F164" s="2">
-        <v>17.507290000000001</v>
+        <v>9.7494329999999998</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>164980000</v>
+        <v>196980000</v>
       </c>
       <c r="B165" s="2">
-        <v>17.463025999999999</v>
+        <v>10.397812</v>
       </c>
       <c r="C165" s="2">
-        <v>17.453679999999999</v>
+        <v>10.448434000000001</v>
       </c>
       <c r="D165" s="2">
-        <v>17.839409</v>
+        <v>10.660425</v>
       </c>
       <c r="E165" s="2">
-        <v>16.963442000000001</v>
+        <v>9.5708599999999997</v>
       </c>
       <c r="F165" s="2">
-        <v>17.338336999999999</v>
+        <v>9.7650450000000006</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>165980000</v>
+        <v>197980000</v>
       </c>
       <c r="B166" s="2">
-        <v>17.204597</v>
+        <v>10.507982999999999</v>
       </c>
       <c r="C166" s="2">
-        <v>17.191410000000001</v>
+        <v>10.563948</v>
       </c>
       <c r="D166" s="2">
-        <v>17.57133</v>
+        <v>10.777407999999999</v>
       </c>
       <c r="E166" s="2">
-        <v>16.389462000000002</v>
+        <v>9.5641280000000002</v>
       </c>
       <c r="F166" s="2">
-        <v>16.751657000000002</v>
+        <v>9.7573849999999993</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>166980000</v>
+        <v>198980000</v>
       </c>
       <c r="B167" s="2">
-        <v>16.664017000000001</v>
+        <v>10.502644999999999</v>
       </c>
       <c r="C167" s="2">
-        <v>16.647596</v>
+        <v>10.557035000000001</v>
       </c>
       <c r="D167" s="2">
-        <v>17.015771999999998</v>
+        <v>10.7697</v>
       </c>
       <c r="E167" s="2">
-        <v>15.509312</v>
+        <v>9.5259809999999998</v>
       </c>
       <c r="F167" s="2">
-        <v>15.852312</v>
+        <v>9.7178760000000004</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>167980000</v>
+        <v>199980000</v>
       </c>
       <c r="B168" s="2">
-        <v>15.692028000000001</v>
+        <v>10.476825</v>
       </c>
       <c r="C168" s="2">
-        <v>15.669041999999999</v>
+        <v>10.53476</v>
       </c>
       <c r="D168" s="2">
-        <v>16.016514000000001</v>
+        <v>10.746338</v>
       </c>
       <c r="E168" s="2">
-        <v>14.46514</v>
+        <v>9.552244</v>
       </c>
       <c r="F168" s="2">
-        <v>14.785914</v>
+        <v>9.7440890000000007</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>168980000</v>
+        <v>200980000</v>
       </c>
       <c r="B169" s="2">
-        <v>13.991574</v>
+        <v>10.523080999999999</v>
       </c>
       <c r="C169" s="2">
-        <v>13.970416999999999</v>
+        <v>10.58986</v>
       </c>
       <c r="D169" s="2">
-        <v>14.281309</v>
+        <v>10.801614000000001</v>
       </c>
       <c r="E169" s="2">
-        <v>12.749568999999999</v>
+        <v>9.6371610000000008</v>
       </c>
       <c r="F169" s="2">
-        <v>13.033294</v>
+        <v>9.8298660000000009</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>169980000</v>
+        <v>201980000</v>
       </c>
       <c r="B170" s="2">
-        <v>12.541407</v>
+        <v>10.638788</v>
       </c>
       <c r="C170" s="2">
-        <v>12.526964</v>
+        <v>10.706725</v>
       </c>
       <c r="D170" s="2">
-        <v>12.806053</v>
+        <v>10.920109999999999</v>
       </c>
       <c r="E170" s="2">
-        <v>11.210407</v>
+        <v>9.6760129999999993</v>
       </c>
       <c r="F170" s="2">
-        <v>11.460163</v>
+        <v>9.8688570000000002</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>170980000</v>
+        <v>202980000</v>
       </c>
       <c r="B171" s="2">
-        <v>12.129033</v>
+        <v>10.484119</v>
       </c>
       <c r="C171" s="2">
-        <v>12.11749</v>
+        <v>10.552770000000001</v>
       </c>
       <c r="D171" s="2">
-        <v>12.386892</v>
+        <v>10.762309999999999</v>
       </c>
       <c r="E171" s="2">
-        <v>10.999067999999999</v>
+        <v>9.610201</v>
       </c>
       <c r="F171" s="2">
-        <v>11.243605000000001</v>
+        <v>9.801024</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>171980000</v>
+        <v>203980000</v>
       </c>
       <c r="B172" s="2">
-        <v>12.476770999999999</v>
+        <v>10.563122</v>
       </c>
       <c r="C172" s="2">
-        <v>12.465275999999999</v>
+        <v>10.634955</v>
       </c>
       <c r="D172" s="2">
-        <v>12.741553</v>
+        <v>10.845352</v>
       </c>
       <c r="E172" s="2">
-        <v>11.275288</v>
+        <v>9.5483689999999992</v>
       </c>
       <c r="F172" s="2">
-        <v>11.52519</v>
+        <v>9.7372700000000005</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>172980000</v>
+        <v>204980000</v>
       </c>
       <c r="B173" s="2">
-        <v>12.528456</v>
+        <v>10.524034500000001</v>
       </c>
       <c r="C173" s="2">
-        <v>12.5181465</v>
+        <v>10.594485000000001</v>
       </c>
       <c r="D173" s="2">
-        <v>12.794694</v>
+        <v>10.803296</v>
       </c>
       <c r="E173" s="2">
-        <v>11.461008</v>
+        <v>9.5262130000000003</v>
       </c>
       <c r="F173" s="2">
-        <v>11.714202</v>
+        <v>9.7139670000000002</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>173980000</v>
+        <v>205980000</v>
       </c>
       <c r="B174" s="2">
-        <v>12.610632000000001</v>
+        <v>10.406298</v>
       </c>
       <c r="C174" s="2">
-        <v>12.598601</v>
+        <v>10.475493</v>
       </c>
       <c r="D174" s="2">
-        <v>12.876742999999999</v>
+        <v>10.681120999999999</v>
       </c>
       <c r="E174" s="2">
-        <v>11.43572</v>
+        <v>9.4253210000000003</v>
       </c>
       <c r="F174" s="2">
-        <v>11.6881895</v>
+        <v>9.6103330000000007</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>174980000</v>
+        <v>206980000</v>
       </c>
       <c r="B175" s="2">
-        <v>12.35228</v>
+        <v>5.6583966999999999</v>
       </c>
       <c r="C175" s="2">
-        <v>12.343707999999999</v>
+        <v>5.7035426999999999</v>
       </c>
       <c r="D175" s="2">
-        <v>12.616042999999999</v>
+        <v>5.8149940000000004</v>
       </c>
       <c r="E175" s="2">
-        <v>11.2910185</v>
+        <v>4.4865246000000001</v>
       </c>
       <c r="F175" s="2">
-        <v>11.540129</v>
+        <v>4.5741940000000003</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>175980000</v>
+        <v>207980000</v>
       </c>
       <c r="B176" s="2">
-        <v>11.985936000000001</v>
+        <v>1.6780183</v>
       </c>
       <c r="C176" s="2">
-        <v>11.977762</v>
+        <v>1.7079446</v>
       </c>
       <c r="D176" s="2">
-        <v>12.242082</v>
+        <v>1.7413323999999999</v>
       </c>
       <c r="E176" s="2">
-        <v>10.775778000000001</v>
+        <v>0.94954240000000001</v>
       </c>
       <c r="F176" s="2">
-        <v>11.013574</v>
+        <v>0.96810454000000001</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>176980000</v>
+        <v>208980000</v>
       </c>
       <c r="B177" s="2">
-        <v>11.255887</v>
+        <v>1.1094111</v>
       </c>
       <c r="C177" s="2">
-        <v>11.248822000000001</v>
+        <v>1.1244329</v>
       </c>
       <c r="D177" s="2">
-        <v>11.496458000000001</v>
+        <v>1.1464075</v>
       </c>
       <c r="E177" s="2">
-        <v>10.104376999999999</v>
+        <v>0.90894359999999996</v>
       </c>
       <c r="F177" s="2">
-        <v>10.326817999999999</v>
+        <v>0.9267069</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>177980000</v>
+        <v>209980000</v>
       </c>
       <c r="B178" s="2">
-        <v>11.670004</v>
+        <v>-0.48167187</v>
       </c>
       <c r="C178" s="2">
-        <v>11.664393</v>
+        <v>-0.48450214000000003</v>
       </c>
       <c r="D178" s="2">
-        <v>11.919705</v>
+        <v>-0.49396393</v>
       </c>
       <c r="E178" s="2">
-        <v>10.650111000000001</v>
+        <v>0.90714519999999998</v>
       </c>
       <c r="F178" s="2">
-        <v>10.883222999999999</v>
+        <v>0.92486069999999998</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>178980000</v>
+        <v>210980000</v>
       </c>
       <c r="B179" s="2">
-        <v>12.108457</v>
+        <v>1.2586719</v>
       </c>
       <c r="C179" s="2">
-        <v>12.108598000000001</v>
+        <v>1.2660677</v>
       </c>
       <c r="D179" s="2">
-        <v>12.371794</v>
+        <v>1.2907985</v>
       </c>
       <c r="E179" s="2">
-        <v>11.027087</v>
+        <v>0.90315840000000003</v>
       </c>
       <c r="F179" s="2">
-        <v>11.266775000000001</v>
+        <v>0.92080026999999998</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>179980000</v>
-      </c>
-      <c r="B180" s="2">
-        <v>11.800049</v>
-      </c>
-      <c r="C180" s="2">
-        <v>11.807979</v>
-      </c>
-      <c r="D180" s="2">
-        <v>12.063203</v>
-      </c>
-      <c r="E180" s="2">
-        <v>10.849114999999999</v>
-      </c>
-      <c r="F180" s="2">
-        <v>11.083615</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>180980000</v>
-      </c>
-      <c r="B181" s="2">
-        <v>11.456689000000001</v>
-      </c>
-      <c r="C181" s="2">
-        <v>11.473209000000001</v>
-      </c>
-      <c r="D181" s="2">
-        <v>11.720122</v>
-      </c>
-      <c r="E181" s="2">
-        <v>10.435798999999999</v>
-      </c>
-      <c r="F181" s="2">
-        <v>10.660387</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>181980000</v>
-      </c>
-      <c r="B182" s="2">
-        <v>11.1258745</v>
-      </c>
-      <c r="C182" s="2">
-        <v>11.146172999999999</v>
-      </c>
-      <c r="D182" s="2">
-        <v>11.385141000000001</v>
-      </c>
-      <c r="E182" s="2">
-        <v>10.138453999999999</v>
-      </c>
-      <c r="F182" s="2">
-        <v>10.355819</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>182980000</v>
-      </c>
-      <c r="B183" s="2">
-        <v>11.124114000000001</v>
-      </c>
-      <c r="C183" s="2">
-        <v>11.149509999999999</v>
-      </c>
-      <c r="D183" s="2">
-        <v>11.387257999999999</v>
-      </c>
-      <c r="E183" s="2">
-        <v>10.015803999999999</v>
-      </c>
-      <c r="F183" s="2">
-        <v>10.229376999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>183980000</v>
-      </c>
-      <c r="B184" s="2">
-        <v>10.860491</v>
-      </c>
-      <c r="C184" s="2">
-        <v>10.8860855</v>
-      </c>
-      <c r="D184" s="2">
-        <v>11.117492</v>
-      </c>
-      <c r="E184" s="2">
-        <v>9.9330839999999991</v>
-      </c>
-      <c r="F184" s="2">
-        <v>10.144232000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>184980000</v>
-      </c>
-      <c r="B185" s="2">
-        <v>10.698312</v>
-      </c>
-      <c r="C185" s="2">
-        <v>10.726257</v>
-      </c>
-      <c r="D185" s="2">
-        <v>10.95321</v>
-      </c>
-      <c r="E185" s="2">
-        <v>9.8358749999999997</v>
-      </c>
-      <c r="F185" s="2">
-        <v>10.043988000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>185980000</v>
-      </c>
-      <c r="B186" s="2">
-        <v>10.653376</v>
-      </c>
-      <c r="C186" s="2">
-        <v>10.683671</v>
-      </c>
-      <c r="D186" s="2">
-        <v>10.908953</v>
-      </c>
-      <c r="E186" s="2">
-        <v>9.7236159999999998</v>
-      </c>
-      <c r="F186" s="2">
-        <v>9.9286539999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>186980000</v>
-      </c>
-      <c r="B187" s="2">
-        <v>10.627597</v>
-      </c>
-      <c r="C187" s="2">
-        <v>10.660698999999999</v>
-      </c>
-      <c r="D187" s="2">
-        <v>10.884615</v>
-      </c>
-      <c r="E187" s="2">
-        <v>9.6424059999999994</v>
-      </c>
-      <c r="F187" s="2">
-        <v>9.8449340000000003</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>187980000</v>
-      </c>
-      <c r="B188" s="2">
-        <v>10.495984999999999</v>
-      </c>
-      <c r="C188" s="2">
-        <v>10.529608</v>
-      </c>
-      <c r="D188" s="2">
-        <v>10.750007999999999</v>
-      </c>
-      <c r="E188" s="2">
-        <v>9.5420859999999994</v>
-      </c>
-      <c r="F188" s="2">
-        <v>9.7418165000000005</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>188980000</v>
-      </c>
-      <c r="B189" s="2">
-        <v>10.511053</v>
-      </c>
-      <c r="C189" s="2">
-        <v>10.547112</v>
-      </c>
-      <c r="D189" s="2">
-        <v>10.767173</v>
-      </c>
-      <c r="E189" s="2">
-        <v>9.5109139999999996</v>
-      </c>
-      <c r="F189" s="2">
-        <v>9.7093530000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>189980000</v>
-      </c>
-      <c r="B190" s="2">
-        <v>10.471882000000001</v>
-      </c>
-      <c r="C190" s="2">
-        <v>10.507403</v>
-      </c>
-      <c r="D190" s="2">
-        <v>10.725720000000001</v>
-      </c>
-      <c r="E190" s="2">
-        <v>9.5294450000000008</v>
-      </c>
-      <c r="F190" s="2">
-        <v>9.7274429999999992</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>190980000</v>
-      </c>
-      <c r="B191" s="2">
-        <v>10.605464</v>
-      </c>
-      <c r="C191" s="2">
-        <v>10.642899999999999</v>
-      </c>
-      <c r="D191" s="2">
-        <v>10.863353999999999</v>
-      </c>
-      <c r="E191" s="2">
-        <v>9.5554319999999997</v>
-      </c>
-      <c r="F191" s="2">
-        <v>9.7533619999999992</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>191980000</v>
-      </c>
-      <c r="B192" s="2">
-        <v>10.597572</v>
-      </c>
-      <c r="C192" s="2">
-        <v>10.634073000000001</v>
-      </c>
-      <c r="D192" s="2">
-        <v>10.853621499999999</v>
-      </c>
-      <c r="E192" s="2">
-        <v>9.5340070000000008</v>
-      </c>
-      <c r="F192" s="2">
-        <v>9.7308444999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>192980000</v>
-      </c>
-      <c r="B193" s="2">
-        <v>10.460604</v>
-      </c>
-      <c r="C193" s="2">
-        <v>10.497292</v>
-      </c>
-      <c r="D193" s="2">
-        <v>10.713241999999999</v>
-      </c>
-      <c r="E193" s="2">
-        <v>9.5038199999999993</v>
-      </c>
-      <c r="F193" s="2">
-        <v>9.6993320000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>193980000</v>
-      </c>
-      <c r="B194" s="2">
-        <v>10.574209</v>
-      </c>
-      <c r="C194" s="2">
-        <v>10.614521</v>
-      </c>
-      <c r="D194" s="2">
-        <v>10.832160999999999</v>
-      </c>
-      <c r="E194" s="2">
-        <v>9.4919709999999995</v>
-      </c>
-      <c r="F194" s="2">
-        <v>9.6865939999999995</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>194980000</v>
-      </c>
-      <c r="B195" s="2">
-        <v>10.441046</v>
-      </c>
-      <c r="C195" s="2">
-        <v>10.483628</v>
-      </c>
-      <c r="D195" s="2">
-        <v>10.697831000000001</v>
-      </c>
-      <c r="E195" s="2">
-        <v>9.5197350000000007</v>
-      </c>
-      <c r="F195" s="2">
-        <v>9.7142429999999997</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>195980000</v>
-      </c>
-      <c r="B196" s="2">
-        <v>10.54003</v>
-      </c>
-      <c r="C196" s="2">
-        <v>10.587002999999999</v>
-      </c>
-      <c r="D196" s="2">
-        <v>10.802659999999999</v>
-      </c>
-      <c r="E196" s="2">
-        <v>9.5548009999999994</v>
-      </c>
-      <c r="F196" s="2">
-        <v>9.7494329999999998</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>196980000</v>
-      </c>
-      <c r="B197" s="2">
-        <v>10.397812</v>
-      </c>
-      <c r="C197" s="2">
-        <v>10.448434000000001</v>
-      </c>
-      <c r="D197" s="2">
-        <v>10.660425</v>
-      </c>
-      <c r="E197" s="2">
-        <v>9.5708599999999997</v>
-      </c>
-      <c r="F197" s="2">
-        <v>9.7650450000000006</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>197980000</v>
-      </c>
-      <c r="B198" s="2">
-        <v>10.507982999999999</v>
-      </c>
-      <c r="C198" s="2">
-        <v>10.563948</v>
-      </c>
-      <c r="D198" s="2">
-        <v>10.777407999999999</v>
-      </c>
-      <c r="E198" s="2">
-        <v>9.5641280000000002</v>
-      </c>
-      <c r="F198" s="2">
-        <v>9.7573849999999993</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>198980000</v>
-      </c>
-      <c r="B199" s="2">
-        <v>10.502644999999999</v>
-      </c>
-      <c r="C199" s="2">
-        <v>10.557035000000001</v>
-      </c>
-      <c r="D199" s="2">
-        <v>10.7697</v>
-      </c>
-      <c r="E199" s="2">
-        <v>9.5259809999999998</v>
-      </c>
-      <c r="F199" s="2">
-        <v>9.7178760000000004</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>199980000</v>
-      </c>
-      <c r="B200" s="2">
-        <v>10.476825</v>
-      </c>
-      <c r="C200" s="2">
-        <v>10.53476</v>
-      </c>
-      <c r="D200" s="2">
-        <v>10.746338</v>
-      </c>
-      <c r="E200" s="2">
-        <v>9.552244</v>
-      </c>
-      <c r="F200" s="2">
-        <v>9.7440890000000007</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>200980000</v>
-      </c>
-      <c r="B201" s="2">
-        <v>10.523080999999999</v>
-      </c>
-      <c r="C201" s="2">
-        <v>10.58986</v>
-      </c>
-      <c r="D201" s="2">
-        <v>10.801614000000001</v>
-      </c>
-      <c r="E201" s="2">
-        <v>9.6371610000000008</v>
-      </c>
-      <c r="F201" s="2">
-        <v>9.8298660000000009</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>201980000</v>
-      </c>
-      <c r="B202" s="2">
-        <v>10.638788</v>
-      </c>
-      <c r="C202" s="2">
-        <v>10.706725</v>
-      </c>
-      <c r="D202" s="2">
-        <v>10.920109999999999</v>
-      </c>
-      <c r="E202" s="2">
-        <v>9.6760129999999993</v>
-      </c>
-      <c r="F202" s="2">
-        <v>9.8688570000000002</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>202980000</v>
-      </c>
-      <c r="B203" s="2">
-        <v>10.484119</v>
-      </c>
-      <c r="C203" s="2">
-        <v>10.552770000000001</v>
-      </c>
-      <c r="D203" s="2">
-        <v>10.762309999999999</v>
-      </c>
-      <c r="E203" s="2">
-        <v>9.610201</v>
-      </c>
-      <c r="F203" s="2">
-        <v>9.801024</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>203980000</v>
-      </c>
-      <c r="B204" s="2">
-        <v>10.563122</v>
-      </c>
-      <c r="C204" s="2">
-        <v>10.634955</v>
-      </c>
-      <c r="D204" s="2">
-        <v>10.845352</v>
-      </c>
-      <c r="E204" s="2">
-        <v>9.5483689999999992</v>
-      </c>
-      <c r="F204" s="2">
-        <v>9.7372700000000005</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>204980000</v>
-      </c>
-      <c r="B205" s="2">
-        <v>10.524034500000001</v>
-      </c>
-      <c r="C205" s="2">
-        <v>10.594485000000001</v>
-      </c>
-      <c r="D205" s="2">
-        <v>10.803296</v>
-      </c>
-      <c r="E205" s="2">
-        <v>9.5262130000000003</v>
-      </c>
-      <c r="F205" s="2">
-        <v>9.7139670000000002</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>205980000</v>
-      </c>
-      <c r="B206" s="2">
-        <v>10.406298</v>
-      </c>
-      <c r="C206" s="2">
-        <v>10.475493</v>
-      </c>
-      <c r="D206" s="2">
-        <v>10.681120999999999</v>
-      </c>
-      <c r="E206" s="2">
-        <v>9.4253210000000003</v>
-      </c>
-      <c r="F206" s="2">
-        <v>9.6103330000000007</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>206980000</v>
-      </c>
-      <c r="B207" s="2">
-        <v>5.6583966999999999</v>
-      </c>
-      <c r="C207" s="2">
-        <v>5.7035426999999999</v>
-      </c>
-      <c r="D207" s="2">
-        <v>5.8149940000000004</v>
-      </c>
-      <c r="E207" s="2">
-        <v>4.4865246000000001</v>
-      </c>
-      <c r="F207" s="2">
-        <v>4.5741940000000003</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>207980000</v>
-      </c>
-      <c r="B208" s="2">
-        <v>1.6780183</v>
-      </c>
-      <c r="C208" s="2">
-        <v>1.7079446</v>
-      </c>
-      <c r="D208" s="2">
-        <v>1.7413323999999999</v>
-      </c>
-      <c r="E208" s="2">
-        <v>0.94954240000000001</v>
-      </c>
-      <c r="F208" s="2">
-        <v>0.96810454000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>208980000</v>
-      </c>
-      <c r="B209" s="2">
-        <v>1.1094111</v>
-      </c>
-      <c r="C209" s="2">
-        <v>1.1244329</v>
-      </c>
-      <c r="D209" s="2">
-        <v>1.1464075</v>
-      </c>
-      <c r="E209" s="2">
-        <v>0.90894359999999996</v>
-      </c>
-      <c r="F209" s="2">
-        <v>0.9267069</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
-        <v>209980000</v>
-      </c>
-      <c r="B210" s="2">
-        <v>-0.48167187</v>
-      </c>
-      <c r="C210" s="2">
-        <v>-0.48450214000000003</v>
-      </c>
-      <c r="D210" s="2">
-        <v>-0.49396393</v>
-      </c>
-      <c r="E210" s="2">
-        <v>0.90714519999999998</v>
-      </c>
-      <c r="F210" s="2">
-        <v>0.92486069999999998</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <v>210980000</v>
-      </c>
-      <c r="B211" s="2">
-        <v>1.2586719</v>
-      </c>
-      <c r="C211" s="2">
-        <v>1.2660677</v>
-      </c>
-      <c r="D211" s="2">
-        <v>1.2907985</v>
-      </c>
-      <c r="E211" s="2">
-        <v>0.90315840000000003</v>
-      </c>
-      <c r="F211" s="2">
-        <v>0.92080026999999998</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
